--- a/earlywarning-pom/earlywarning-config/src/baf-instances/27_Inst_Variable_KOPER.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/27_Inst_Variable_KOPER.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\DEV\GitRepoAAAP\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" activeTab="1"/>
+    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="593">
   <si>
     <t>Variable</t>
   </si>
@@ -1756,18 +1756,97 @@
   </si>
   <si>
     <t>KOPER_IND_208_REAL</t>
+  </si>
+  <si>
+    <t>IND_220</t>
+  </si>
+  <si>
+    <t>IND_221</t>
+  </si>
+  <si>
+    <t>IND_222</t>
+  </si>
+  <si>
+    <t>IND_223</t>
+  </si>
+  <si>
+    <t>IND_224</t>
+  </si>
+  <si>
+    <t>IND_225</t>
+  </si>
+  <si>
+    <t>KOPER_IND_220</t>
+  </si>
+  <si>
+    <t>KOPER_IND_221</t>
+  </si>
+  <si>
+    <t>KOPER_IND_222</t>
+  </si>
+  <si>
+    <t>KOPER_IND_223</t>
+  </si>
+  <si>
+    <t>KOPER_IND_224</t>
+  </si>
+  <si>
+    <t>KOPER_IND_225</t>
+  </si>
+  <si>
+    <t>220 - Materiality threshold</t>
+  </si>
+  <si>
+    <t>221 - Past due public creditors / employees</t>
+  </si>
+  <si>
+    <t>222 - Collateral Value Decrease</t>
+  </si>
+  <si>
+    <t>224 - Covenant Breach</t>
+  </si>
+  <si>
+    <t>225 - Bond Trade Suspended</t>
+  </si>
+  <si>
+    <t>223 - Delta Cashflow</t>
+  </si>
+  <si>
+    <t>KOPER_IND_220_STRING</t>
+  </si>
+  <si>
+    <t>KOPER_IND_221_STRING</t>
+  </si>
+  <si>
+    <t>KOPER_IND_222_STRING</t>
+  </si>
+  <si>
+    <t>KOPER_IND_223_STRING</t>
+  </si>
+  <si>
+    <t>KOPER_IND_224_STRING</t>
+  </si>
+  <si>
+    <t>KOPER_IND_225_STRING</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1911,48 +1990,51 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2979,10 +3061,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N133"/>
+  <dimension ref="A1:N139"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D133"/>
+    <sheetView tabSelected="1" topLeftCell="G122" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A134" sqref="A134:N139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8829,6 +8911,270 @@
         <v>0</v>
       </c>
     </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A134" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B134" t="s">
+        <v>575</v>
+      </c>
+      <c r="C134" t="s">
+        <v>575</v>
+      </c>
+      <c r="D134" t="s">
+        <v>575</v>
+      </c>
+      <c r="E134" t="s">
+        <v>569</v>
+      </c>
+      <c r="F134" t="s">
+        <v>581</v>
+      </c>
+      <c r="G134">
+        <v>220</v>
+      </c>
+      <c r="H134" t="b">
+        <v>0</v>
+      </c>
+      <c r="I134" t="b">
+        <v>0</v>
+      </c>
+      <c r="J134" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K134" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L134" t="b">
+        <v>0</v>
+      </c>
+      <c r="M134" t="b">
+        <v>0</v>
+      </c>
+      <c r="N134" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A135" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B135" t="s">
+        <v>576</v>
+      </c>
+      <c r="C135" t="s">
+        <v>576</v>
+      </c>
+      <c r="D135" t="s">
+        <v>576</v>
+      </c>
+      <c r="E135" t="s">
+        <v>570</v>
+      </c>
+      <c r="F135" t="s">
+        <v>582</v>
+      </c>
+      <c r="G135">
+        <v>221</v>
+      </c>
+      <c r="H135" t="b">
+        <v>0</v>
+      </c>
+      <c r="I135" t="b">
+        <v>0</v>
+      </c>
+      <c r="J135" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K135" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L135" t="b">
+        <v>0</v>
+      </c>
+      <c r="M135" t="b">
+        <v>0</v>
+      </c>
+      <c r="N135" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A136" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B136" t="s">
+        <v>577</v>
+      </c>
+      <c r="C136" t="s">
+        <v>577</v>
+      </c>
+      <c r="D136" t="s">
+        <v>577</v>
+      </c>
+      <c r="E136" t="s">
+        <v>571</v>
+      </c>
+      <c r="F136" t="s">
+        <v>583</v>
+      </c>
+      <c r="G136">
+        <v>222</v>
+      </c>
+      <c r="H136" t="b">
+        <v>0</v>
+      </c>
+      <c r="I136" t="b">
+        <v>0</v>
+      </c>
+      <c r="J136" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K136" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L136" t="b">
+        <v>0</v>
+      </c>
+      <c r="M136" t="b">
+        <v>0</v>
+      </c>
+      <c r="N136" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A137" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B137" t="s">
+        <v>578</v>
+      </c>
+      <c r="C137" t="s">
+        <v>578</v>
+      </c>
+      <c r="D137" t="s">
+        <v>578</v>
+      </c>
+      <c r="E137" t="s">
+        <v>572</v>
+      </c>
+      <c r="F137" s="24" t="s">
+        <v>586</v>
+      </c>
+      <c r="G137">
+        <v>223</v>
+      </c>
+      <c r="H137" t="b">
+        <v>0</v>
+      </c>
+      <c r="I137" t="b">
+        <v>0</v>
+      </c>
+      <c r="J137" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K137" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L137" t="b">
+        <v>0</v>
+      </c>
+      <c r="M137" t="b">
+        <v>0</v>
+      </c>
+      <c r="N137" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A138" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B138" t="s">
+        <v>579</v>
+      </c>
+      <c r="C138" t="s">
+        <v>579</v>
+      </c>
+      <c r="D138" t="s">
+        <v>579</v>
+      </c>
+      <c r="E138" t="s">
+        <v>573</v>
+      </c>
+      <c r="F138" t="s">
+        <v>584</v>
+      </c>
+      <c r="G138">
+        <v>224</v>
+      </c>
+      <c r="H138" t="b">
+        <v>0</v>
+      </c>
+      <c r="I138" t="b">
+        <v>0</v>
+      </c>
+      <c r="J138" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K138" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L138" t="b">
+        <v>0</v>
+      </c>
+      <c r="M138" t="b">
+        <v>0</v>
+      </c>
+      <c r="N138" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A139" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B139" t="s">
+        <v>580</v>
+      </c>
+      <c r="C139" t="s">
+        <v>580</v>
+      </c>
+      <c r="D139" t="s">
+        <v>580</v>
+      </c>
+      <c r="E139" t="s">
+        <v>574</v>
+      </c>
+      <c r="F139" t="s">
+        <v>585</v>
+      </c>
+      <c r="G139">
+        <v>225</v>
+      </c>
+      <c r="H139" t="b">
+        <v>0</v>
+      </c>
+      <c r="I139" t="b">
+        <v>0</v>
+      </c>
+      <c r="J139" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K139" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L139" t="b">
+        <v>0</v>
+      </c>
+      <c r="M139" t="b">
+        <v>0</v>
+      </c>
+      <c r="N139" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A2:M108"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -8839,11 +9185,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F133"/>
+  <dimension ref="A1:F139"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C124" sqref="C124"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B148" sqref="B148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11112,6 +11458,108 @@
       </c>
       <c r="F133" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>11</v>
+      </c>
+      <c r="B134" t="s">
+        <v>587</v>
+      </c>
+      <c r="C134" t="s">
+        <v>587</v>
+      </c>
+      <c r="E134" t="s">
+        <v>575</v>
+      </c>
+      <c r="F134" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>11</v>
+      </c>
+      <c r="B135" t="s">
+        <v>588</v>
+      </c>
+      <c r="C135" t="s">
+        <v>588</v>
+      </c>
+      <c r="E135" t="s">
+        <v>576</v>
+      </c>
+      <c r="F135" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>11</v>
+      </c>
+      <c r="B136" t="s">
+        <v>589</v>
+      </c>
+      <c r="C136" t="s">
+        <v>589</v>
+      </c>
+      <c r="E136" t="s">
+        <v>577</v>
+      </c>
+      <c r="F136" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>11</v>
+      </c>
+      <c r="B137" t="s">
+        <v>590</v>
+      </c>
+      <c r="C137" t="s">
+        <v>590</v>
+      </c>
+      <c r="E137" t="s">
+        <v>578</v>
+      </c>
+      <c r="F137" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>11</v>
+      </c>
+      <c r="B138" t="s">
+        <v>591</v>
+      </c>
+      <c r="C138" t="s">
+        <v>591</v>
+      </c>
+      <c r="E138" t="s">
+        <v>579</v>
+      </c>
+      <c r="F138" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>11</v>
+      </c>
+      <c r="B139" t="s">
+        <v>592</v>
+      </c>
+      <c r="C139" t="s">
+        <v>592</v>
+      </c>
+      <c r="E139" t="s">
+        <v>580</v>
+      </c>
+      <c r="F139" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/27_Inst_Variable_KOPER.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/27_Inst_Variable_KOPER.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tools\progetto Intesa\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991"/>
+    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
@@ -1818,7 +1818,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1962,14 +1962,12 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1993,9 +1991,11 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3023,8 +3023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3039,91 +3039,91 @@
     <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="49" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" style="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.85546875" customWidth="1"/>
     <col min="14" max="1023" width="8.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
     </row>
     <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="3" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="17" t="s">
         <v>59</v>
       </c>
       <c r="G3">
@@ -3135,10 +3135,10 @@
       <c r="I3" t="b">
         <v>0</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L3" t="b">
@@ -3152,22 +3152,22 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="17" t="s">
         <v>64</v>
       </c>
       <c r="G4">
@@ -3179,10 +3179,10 @@
       <c r="I4" t="b">
         <v>0</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="10" t="s">
         <v>13</v>
       </c>
       <c r="L4" t="b">
@@ -3196,22 +3196,22 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="17" t="s">
         <v>60</v>
       </c>
       <c r="G5">
@@ -3223,10 +3223,10 @@
       <c r="I5" t="b">
         <v>0</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L5" t="b">
@@ -3240,22 +3240,22 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="A6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="17" t="s">
         <v>69</v>
       </c>
       <c r="G6">
@@ -3267,10 +3267,10 @@
       <c r="I6" t="b">
         <v>0</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L6" t="b">
@@ -3284,22 +3284,22 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="A7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="17" t="s">
         <v>65</v>
       </c>
       <c r="G7">
@@ -3311,10 +3311,10 @@
       <c r="I7" t="b">
         <v>0</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L7" t="b">
@@ -3328,22 +3328,22 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="17" t="s">
         <v>402</v>
       </c>
       <c r="G8">
@@ -3355,10 +3355,10 @@
       <c r="I8" t="b">
         <v>0</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="J8" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="K8" s="13" t="b">
+      <c r="K8" s="11" t="b">
         <v>1</v>
       </c>
       <c r="L8" t="b">
@@ -3372,22 +3372,22 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="A9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="17" t="s">
         <v>229</v>
       </c>
       <c r="G9">
@@ -3399,10 +3399,10 @@
       <c r="I9" t="b">
         <v>0</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="13" t="b">
+      <c r="K9" s="11" t="b">
         <v>1</v>
       </c>
       <c r="L9" t="b">
@@ -3416,22 +3416,22 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>341</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="17" t="s">
         <v>341</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="17" t="s">
         <v>341</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="17" t="s">
         <v>372</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="17" t="s">
         <v>403</v>
       </c>
       <c r="G10">
@@ -3443,10 +3443,10 @@
       <c r="I10" t="b">
         <v>0</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K10" s="13" t="b">
+      <c r="K10" s="11" t="b">
         <v>1</v>
       </c>
       <c r="L10" t="b">
@@ -3460,22 +3460,22 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="A11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="17" t="s">
         <v>223</v>
       </c>
       <c r="G11">
@@ -3487,10 +3487,10 @@
       <c r="I11" t="b">
         <v>0</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L11" t="b">
@@ -3504,22 +3504,22 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="A12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="17" t="s">
         <v>245</v>
       </c>
       <c r="G12">
@@ -3531,10 +3531,10 @@
       <c r="I12" t="b">
         <v>0</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L12" t="b">
@@ -3548,22 +3548,22 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="A13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="17" t="s">
         <v>221</v>
       </c>
       <c r="G13">
@@ -3575,10 +3575,10 @@
       <c r="I13" t="b">
         <v>0</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="J13" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="K13" s="10" t="s">
         <v>13</v>
       </c>
       <c r="L13" t="b">
@@ -3592,22 +3592,22 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="A14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="17" t="s">
         <v>61</v>
       </c>
       <c r="G14">
@@ -3619,10 +3619,10 @@
       <c r="I14" t="b">
         <v>0</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="J14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="K14" s="12" t="s">
+      <c r="K14" s="10" t="s">
         <v>13</v>
       </c>
       <c r="L14" t="b">
@@ -3636,22 +3636,22 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="A15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="17" t="s">
         <v>233</v>
       </c>
       <c r="G15">
@@ -3663,10 +3663,10 @@
       <c r="I15" t="b">
         <v>0</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="K15" s="12" t="s">
+      <c r="K15" s="10" t="s">
         <v>13</v>
       </c>
       <c r="L15" t="b">
@@ -3680,22 +3680,22 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="A16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="17" t="s">
         <v>225</v>
       </c>
       <c r="G16">
@@ -3707,10 +3707,10 @@
       <c r="I16" t="b">
         <v>0</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="J16" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="K16" s="12" t="s">
+      <c r="K16" s="10" t="s">
         <v>13</v>
       </c>
       <c r="L16" t="b">
@@ -3724,22 +3724,22 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="7" t="s">
+      <c r="A17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="17" t="s">
         <v>404</v>
       </c>
       <c r="G17">
@@ -3751,10 +3751,10 @@
       <c r="I17" t="b">
         <v>0</v>
       </c>
-      <c r="J17" s="9" t="s">
+      <c r="J17" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K17" s="13" t="b">
+      <c r="K17" s="11" t="b">
         <v>1</v>
       </c>
       <c r="L17" t="b">
@@ -3768,22 +3768,22 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="7" t="s">
+      <c r="A18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="17" t="s">
         <v>374</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="17" t="s">
         <v>405</v>
       </c>
       <c r="G18">
@@ -3795,10 +3795,10 @@
       <c r="I18" t="b">
         <v>0</v>
       </c>
-      <c r="J18" s="9" t="s">
+      <c r="J18" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K18" s="13" t="b">
+      <c r="K18" s="11" t="b">
         <v>1</v>
       </c>
       <c r="L18" t="b">
@@ -3812,22 +3812,22 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="7" t="s">
+      <c r="A19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="17" t="s">
         <v>406</v>
       </c>
       <c r="G19">
@@ -3839,10 +3839,10 @@
       <c r="I19" t="b">
         <v>0</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="J19" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K19" s="13" t="b">
+      <c r="K19" s="11" t="b">
         <v>1</v>
       </c>
       <c r="L19" t="b">
@@ -3856,22 +3856,22 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="7" t="s">
+      <c r="A20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="17" t="s">
         <v>345</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="17" t="s">
         <v>345</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="17" t="s">
         <v>345</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="17" t="s">
         <v>376</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="17" t="s">
         <v>407</v>
       </c>
       <c r="G20">
@@ -3883,10 +3883,10 @@
       <c r="I20" t="b">
         <v>0</v>
       </c>
-      <c r="J20" s="9" t="s">
+      <c r="J20" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K20" s="13" t="b">
+      <c r="K20" s="11" t="b">
         <v>1</v>
       </c>
       <c r="L20" t="b">
@@ -3900,22 +3900,22 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="A21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="17" t="s">
         <v>70</v>
       </c>
       <c r="G21">
@@ -3927,10 +3927,10 @@
       <c r="I21" t="b">
         <v>0</v>
       </c>
-      <c r="J21" s="6" t="s">
+      <c r="J21" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="K21" s="12" t="s">
+      <c r="K21" s="10" t="s">
         <v>13</v>
       </c>
       <c r="L21" t="b">
@@ -3944,22 +3944,22 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="A22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="17" t="s">
         <v>66</v>
       </c>
       <c r="G22">
@@ -3971,10 +3971,10 @@
       <c r="I22" t="b">
         <v>0</v>
       </c>
-      <c r="J22" s="6" t="s">
+      <c r="J22" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K22" s="11" t="s">
+      <c r="K22" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L22" t="b">
@@ -3988,22 +3988,22 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="A23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="17" t="s">
         <v>71</v>
       </c>
       <c r="G23">
@@ -4015,10 +4015,10 @@
       <c r="I23" t="b">
         <v>0</v>
       </c>
-      <c r="J23" s="6" t="s">
+      <c r="J23" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K23" s="11" t="s">
+      <c r="K23" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L23" t="b">
@@ -4032,22 +4032,22 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="7" t="s">
+      <c r="A24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="17" t="s">
         <v>408</v>
       </c>
       <c r="G24">
@@ -4059,10 +4059,10 @@
       <c r="I24" t="b">
         <v>0</v>
       </c>
-      <c r="J24" s="9" t="s">
+      <c r="J24" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K24" s="13" t="b">
+      <c r="K24" s="11" t="b">
         <v>1</v>
       </c>
       <c r="L24" t="b">
@@ -4076,22 +4076,22 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="A25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="17" t="s">
         <v>62</v>
       </c>
       <c r="G25">
@@ -4103,10 +4103,10 @@
       <c r="I25" t="b">
         <v>0</v>
       </c>
-      <c r="J25" s="6" t="s">
+      <c r="J25" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K25" s="11" t="s">
+      <c r="K25" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L25" t="b">
@@ -4120,22 +4120,22 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="7" t="s">
+      <c r="A26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="17" t="s">
         <v>378</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="17" t="s">
         <v>409</v>
       </c>
       <c r="G26">
@@ -4147,10 +4147,10 @@
       <c r="I26" t="b">
         <v>0</v>
       </c>
-      <c r="J26" s="9" t="s">
+      <c r="J26" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K26" s="13" t="b">
+      <c r="K26" s="11" t="b">
         <v>1</v>
       </c>
       <c r="L26" t="b">
@@ -4164,22 +4164,22 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" s="7" t="s">
+      <c r="A27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="17" t="s">
         <v>348</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="17" t="s">
         <v>348</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="17" t="s">
         <v>348</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="17" t="s">
         <v>379</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="17" t="s">
         <v>410</v>
       </c>
       <c r="G27">
@@ -4191,10 +4191,10 @@
       <c r="I27" t="b">
         <v>0</v>
       </c>
-      <c r="J27" s="16" t="s">
+      <c r="J27" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="K27" s="14" t="b">
+      <c r="K27" s="12" t="b">
         <v>0</v>
       </c>
       <c r="L27" t="b">
@@ -4208,22 +4208,22 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="7" t="s">
+      <c r="A28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="17" t="s">
         <v>380</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="17" t="s">
         <v>411</v>
       </c>
       <c r="G28">
@@ -4235,10 +4235,10 @@
       <c r="I28" t="b">
         <v>0</v>
       </c>
-      <c r="J28" s="15" t="s">
+      <c r="J28" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="K28" s="14" t="b">
+      <c r="K28" s="12" t="b">
         <v>1</v>
       </c>
       <c r="L28" t="b">
@@ -4252,22 +4252,22 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="7" t="s">
+      <c r="A29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="17" t="s">
         <v>381</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="17" t="s">
         <v>412</v>
       </c>
       <c r="G29">
@@ -4279,10 +4279,10 @@
       <c r="I29" t="b">
         <v>0</v>
       </c>
-      <c r="J29" s="17" t="s">
+      <c r="J29" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="K29" s="18" t="b">
+      <c r="K29" s="16" t="b">
         <v>1</v>
       </c>
       <c r="L29" t="b">
@@ -4296,22 +4296,22 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="A30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="17" t="s">
         <v>67</v>
       </c>
       <c r="G30">
@@ -4323,10 +4323,10 @@
       <c r="I30" t="b">
         <v>0</v>
       </c>
-      <c r="J30" s="6" t="s">
+      <c r="J30" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="K30" s="12" t="s">
+      <c r="K30" s="10" t="s">
         <v>13</v>
       </c>
       <c r="L30" t="b">
@@ -4340,22 +4340,22 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="A31" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="17" t="s">
         <v>68</v>
       </c>
       <c r="G31">
@@ -4367,10 +4367,10 @@
       <c r="I31" t="b">
         <v>0</v>
       </c>
-      <c r="J31" s="6" t="s">
+      <c r="J31" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="K31" s="11" t="b">
+      <c r="K31" s="9" t="b">
         <v>1</v>
       </c>
       <c r="L31" t="b">
@@ -4384,22 +4384,22 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="A32" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="17" t="s">
         <v>63</v>
       </c>
       <c r="G32">
@@ -4411,10 +4411,10 @@
       <c r="I32" t="b">
         <v>0</v>
       </c>
-      <c r="J32" s="6" t="s">
+      <c r="J32" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K32" s="11" t="s">
+      <c r="K32" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L32" t="b">
@@ -4428,22 +4428,22 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="A33" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="17" t="s">
         <v>146</v>
       </c>
       <c r="G33">
@@ -4455,10 +4455,10 @@
       <c r="I33" t="b">
         <v>0</v>
       </c>
-      <c r="J33" s="6" t="s">
+      <c r="J33" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K33" s="11" t="s">
+      <c r="K33" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L33" t="b">
@@ -4472,22 +4472,22 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="A34" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="17" t="s">
         <v>147</v>
       </c>
       <c r="G34">
@@ -4499,10 +4499,10 @@
       <c r="I34" t="b">
         <v>0</v>
       </c>
-      <c r="J34" s="6" t="s">
+      <c r="J34" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K34" s="11" t="s">
+      <c r="K34" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L34" t="b">
@@ -4516,22 +4516,22 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="A35" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="17" t="s">
         <v>148</v>
       </c>
       <c r="G35">
@@ -4543,10 +4543,10 @@
       <c r="I35" t="b">
         <v>0</v>
       </c>
-      <c r="J35" s="6" t="s">
+      <c r="J35" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K35" s="11" t="s">
+      <c r="K35" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L35" t="b">
@@ -4560,22 +4560,22 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="A36" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="17" t="s">
         <v>149</v>
       </c>
       <c r="G36">
@@ -4587,10 +4587,10 @@
       <c r="I36" t="b">
         <v>0</v>
       </c>
-      <c r="J36" s="6" t="s">
+      <c r="J36" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K36" s="11" t="s">
+      <c r="K36" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L36" t="b">
@@ -4604,22 +4604,22 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="A37" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="17" t="s">
         <v>150</v>
       </c>
       <c r="G37">
@@ -4631,10 +4631,10 @@
       <c r="I37" t="b">
         <v>0</v>
       </c>
-      <c r="J37" s="6" t="s">
+      <c r="J37" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K37" s="11" t="s">
+      <c r="K37" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L37" t="b">
@@ -4648,22 +4648,22 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="A38" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="17" t="s">
         <v>151</v>
       </c>
       <c r="G38">
@@ -4675,10 +4675,10 @@
       <c r="I38" t="b">
         <v>0</v>
       </c>
-      <c r="J38" s="6" t="s">
+      <c r="J38" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K38" s="11" t="s">
+      <c r="K38" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L38" t="b">
@@ -4692,22 +4692,22 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39" s="7" t="s">
+      <c r="A39" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="17" t="s">
         <v>382</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F39" s="17" t="s">
         <v>413</v>
       </c>
       <c r="G39">
@@ -4719,10 +4719,10 @@
       <c r="I39" t="b">
         <v>0</v>
       </c>
-      <c r="J39" s="6" t="s">
+      <c r="J39" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K39" s="11" t="s">
+      <c r="K39" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L39" t="b">
@@ -4736,22 +4736,22 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="A40" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="17" t="s">
         <v>152</v>
       </c>
       <c r="G40">
@@ -4763,10 +4763,10 @@
       <c r="I40" t="b">
         <v>0</v>
       </c>
-      <c r="J40" s="6" t="s">
+      <c r="J40" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K40" s="11" t="s">
+      <c r="K40" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L40" t="b">
@@ -4780,22 +4780,22 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="A41" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="17" t="s">
         <v>227</v>
       </c>
       <c r="G41">
@@ -4807,10 +4807,10 @@
       <c r="I41" t="b">
         <v>0</v>
       </c>
-      <c r="J41" s="6" t="s">
+      <c r="J41" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K41" s="11" t="s">
+      <c r="K41" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L41" t="b">
@@ -4824,22 +4824,22 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="A42" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="17" t="s">
         <v>153</v>
       </c>
       <c r="G42">
@@ -4851,10 +4851,10 @@
       <c r="I42" t="b">
         <v>0</v>
       </c>
-      <c r="J42" s="6" t="s">
+      <c r="J42" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K42" s="11" t="s">
+      <c r="K42" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L42" t="b">
@@ -4868,22 +4868,22 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="A43" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="17" t="s">
         <v>154</v>
       </c>
       <c r="G43">
@@ -4895,10 +4895,10 @@
       <c r="I43" t="b">
         <v>0</v>
       </c>
-      <c r="J43" s="6" t="s">
+      <c r="J43" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K43" s="11" t="s">
+      <c r="K43" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L43" t="b">
@@ -4912,22 +4912,22 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="A44" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="17" t="s">
         <v>155</v>
       </c>
       <c r="G44">
@@ -4939,10 +4939,10 @@
       <c r="I44" t="b">
         <v>0</v>
       </c>
-      <c r="J44" s="6" t="s">
+      <c r="J44" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K44" s="11" t="s">
+      <c r="K44" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L44" t="b">
@@ -4956,22 +4956,22 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="A45" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="17" t="s">
         <v>156</v>
       </c>
       <c r="G45">
@@ -4983,10 +4983,10 @@
       <c r="I45" t="b">
         <v>0</v>
       </c>
-      <c r="J45" s="6" t="s">
+      <c r="J45" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K45" s="11" t="s">
+      <c r="K45" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L45" t="b">
@@ -5000,22 +5000,22 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B46" s="7" t="s">
+      <c r="A46" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="17" t="s">
         <v>383</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="F46" s="17" t="s">
         <v>414</v>
       </c>
       <c r="G46">
@@ -5027,10 +5027,10 @@
       <c r="I46" t="b">
         <v>0</v>
       </c>
-      <c r="J46" s="6" t="s">
+      <c r="J46" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K46" s="11" t="s">
+      <c r="K46" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L46" t="b">
@@ -5044,22 +5044,22 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B47" s="7" t="s">
+      <c r="A47" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="17" t="s">
         <v>384</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="F47" s="17" t="s">
         <v>415</v>
       </c>
       <c r="G47">
@@ -5071,10 +5071,10 @@
       <c r="I47" t="b">
         <v>0</v>
       </c>
-      <c r="J47" s="6" t="s">
+      <c r="J47" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K47" s="11" t="s">
+      <c r="K47" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L47" t="b">
@@ -5088,22 +5088,22 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="A48" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="17" t="s">
         <v>157</v>
       </c>
       <c r="G48">
@@ -5115,10 +5115,10 @@
       <c r="I48" t="b">
         <v>0</v>
       </c>
-      <c r="J48" s="6" t="s">
+      <c r="J48" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K48" s="11" t="s">
+      <c r="K48" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L48" t="b">
@@ -5132,22 +5132,22 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="A49" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="17" t="s">
         <v>158</v>
       </c>
       <c r="G49">
@@ -5159,10 +5159,10 @@
       <c r="I49" t="b">
         <v>0</v>
       </c>
-      <c r="J49" s="6" t="s">
+      <c r="J49" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K49" s="11" t="s">
+      <c r="K49" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L49" t="b">
@@ -5176,22 +5176,22 @@
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="A50" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="17" t="s">
         <v>159</v>
       </c>
       <c r="G50">
@@ -5203,10 +5203,10 @@
       <c r="I50" t="b">
         <v>0</v>
       </c>
-      <c r="J50" s="6" t="s">
+      <c r="J50" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K50" s="11" t="s">
+      <c r="K50" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L50" t="b">
@@ -5220,22 +5220,22 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="A51" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="17" t="s">
         <v>160</v>
       </c>
       <c r="G51">
@@ -5247,10 +5247,10 @@
       <c r="I51" t="b">
         <v>0</v>
       </c>
-      <c r="J51" s="6" t="s">
+      <c r="J51" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K51" s="11" t="s">
+      <c r="K51" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L51" t="b">
@@ -5264,22 +5264,22 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="A52" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="17" t="s">
         <v>161</v>
       </c>
       <c r="G52">
@@ -5291,10 +5291,10 @@
       <c r="I52" t="b">
         <v>0</v>
       </c>
-      <c r="J52" s="6" t="s">
+      <c r="J52" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K52" s="11" t="s">
+      <c r="K52" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L52" t="b">
@@ -5308,22 +5308,22 @@
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B53" t="s">
+      <c r="A53" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="17" t="s">
         <v>162</v>
       </c>
       <c r="G53">
@@ -5335,10 +5335,10 @@
       <c r="I53" t="b">
         <v>0</v>
       </c>
-      <c r="J53" s="6" t="s">
+      <c r="J53" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K53" s="11" t="s">
+      <c r="K53" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L53" t="b">
@@ -5352,22 +5352,22 @@
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B54" t="s">
+      <c r="A54" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="17" t="s">
         <v>163</v>
       </c>
       <c r="G54">
@@ -5379,10 +5379,10 @@
       <c r="I54" t="b">
         <v>0</v>
       </c>
-      <c r="J54" s="6" t="s">
+      <c r="J54" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K54" s="11" t="s">
+      <c r="K54" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L54" t="b">
@@ -5396,22 +5396,22 @@
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B55" t="s">
+      <c r="A55" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="17" t="s">
         <v>164</v>
       </c>
       <c r="G55">
@@ -5423,10 +5423,10 @@
       <c r="I55" t="b">
         <v>0</v>
       </c>
-      <c r="J55" s="6" t="s">
+      <c r="J55" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K55" s="11" t="s">
+      <c r="K55" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L55" t="b">
@@ -5440,22 +5440,22 @@
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B56" t="s">
+      <c r="A56" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="17" t="s">
         <v>165</v>
       </c>
       <c r="G56">
@@ -5467,10 +5467,10 @@
       <c r="I56" t="b">
         <v>0</v>
       </c>
-      <c r="J56" s="6" t="s">
+      <c r="J56" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K56" s="11" t="s">
+      <c r="K56" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L56" t="b">
@@ -5484,22 +5484,22 @@
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B57" t="s">
+      <c r="A57" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="17" t="s">
         <v>166</v>
       </c>
       <c r="G57">
@@ -5511,10 +5511,10 @@
       <c r="I57" t="b">
         <v>0</v>
       </c>
-      <c r="J57" s="6" t="s">
+      <c r="J57" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K57" s="11" t="s">
+      <c r="K57" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L57" t="b">
@@ -5528,22 +5528,22 @@
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B58" t="s">
+      <c r="A58" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="17" t="s">
         <v>167</v>
       </c>
       <c r="G58">
@@ -5555,10 +5555,10 @@
       <c r="I58" t="b">
         <v>0</v>
       </c>
-      <c r="J58" s="6" t="s">
+      <c r="J58" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K58" s="11" t="s">
+      <c r="K58" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L58" t="b">
@@ -5572,22 +5572,22 @@
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B59" t="s">
+      <c r="A59" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="17" t="s">
         <v>168</v>
       </c>
       <c r="G59">
@@ -5599,10 +5599,10 @@
       <c r="I59" t="b">
         <v>0</v>
       </c>
-      <c r="J59" s="6" t="s">
+      <c r="J59" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K59" s="11" t="s">
+      <c r="K59" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L59" t="b">
@@ -5616,22 +5616,22 @@
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B60" t="s">
+      <c r="A60" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="17" t="s">
         <v>169</v>
       </c>
       <c r="G60">
@@ -5643,10 +5643,10 @@
       <c r="I60" t="b">
         <v>0</v>
       </c>
-      <c r="J60" s="6" t="s">
+      <c r="J60" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K60" s="11" t="s">
+      <c r="K60" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L60" t="b">
@@ -5660,22 +5660,22 @@
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B61" t="s">
+      <c r="A61" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="17" t="s">
         <v>170</v>
       </c>
       <c r="G61">
@@ -5687,10 +5687,10 @@
       <c r="I61" t="b">
         <v>0</v>
       </c>
-      <c r="J61" s="6" t="s">
+      <c r="J61" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K61" s="11" t="s">
+      <c r="K61" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L61" t="b">
@@ -5704,22 +5704,22 @@
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B62" t="s">
+      <c r="A62" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="17" t="s">
         <v>171</v>
       </c>
       <c r="G62">
@@ -5731,10 +5731,10 @@
       <c r="I62" t="b">
         <v>0</v>
       </c>
-      <c r="J62" s="6" t="s">
+      <c r="J62" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K62" s="11" t="s">
+      <c r="K62" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L62" t="b">
@@ -5748,22 +5748,22 @@
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B63" t="s">
+      <c r="A63" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="17" t="s">
         <v>172</v>
       </c>
       <c r="G63">
@@ -5775,10 +5775,10 @@
       <c r="I63" t="b">
         <v>0</v>
       </c>
-      <c r="J63" s="6" t="s">
+      <c r="J63" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K63" s="11" t="s">
+      <c r="K63" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L63" t="b">
@@ -5792,22 +5792,22 @@
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B64" s="7" t="s">
+      <c r="A64" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="D64" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="17" t="s">
         <v>385</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="F64" s="17" t="s">
         <v>416</v>
       </c>
       <c r="G64">
@@ -5819,10 +5819,10 @@
       <c r="I64" t="b">
         <v>0</v>
       </c>
-      <c r="J64" s="6" t="s">
+      <c r="J64" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K64" s="11" t="s">
+      <c r="K64" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L64" t="b">
@@ -5836,22 +5836,22 @@
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B65" s="7" t="s">
+      <c r="A65" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="D65" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="17" t="s">
         <v>386</v>
       </c>
-      <c r="F65" s="7" t="s">
+      <c r="F65" s="17" t="s">
         <v>417</v>
       </c>
       <c r="G65">
@@ -5863,10 +5863,10 @@
       <c r="I65" t="b">
         <v>0</v>
       </c>
-      <c r="J65" s="6" t="s">
+      <c r="J65" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K65" s="11" t="s">
+      <c r="K65" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L65" t="b">
@@ -5880,22 +5880,22 @@
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B66" s="7" t="s">
+      <c r="A66" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" s="17" t="s">
         <v>356</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="17" t="s">
         <v>356</v>
       </c>
-      <c r="D66" s="7" t="s">
+      <c r="D66" s="17" t="s">
         <v>356</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="17" t="s">
         <v>387</v>
       </c>
-      <c r="F66" s="7" t="s">
+      <c r="F66" s="17" t="s">
         <v>418</v>
       </c>
       <c r="G66">
@@ -5907,10 +5907,10 @@
       <c r="I66" t="b">
         <v>0</v>
       </c>
-      <c r="J66" s="6" t="s">
+      <c r="J66" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K66" s="11" t="s">
+      <c r="K66" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L66" t="b">
@@ -5924,22 +5924,22 @@
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B67" s="7" t="s">
+      <c r="A67" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="D67" s="7" t="s">
+      <c r="D67" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="17" t="s">
         <v>388</v>
       </c>
-      <c r="F67" s="7" t="s">
+      <c r="F67" s="17" t="s">
         <v>419</v>
       </c>
       <c r="G67">
@@ -5951,10 +5951,10 @@
       <c r="I67" t="b">
         <v>0</v>
       </c>
-      <c r="J67" s="6" t="s">
+      <c r="J67" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K67" s="11" t="s">
+      <c r="K67" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L67" t="b">
@@ -5968,22 +5968,22 @@
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B68" t="s">
+      <c r="A68" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="17" t="s">
         <v>217</v>
       </c>
       <c r="G68">
@@ -5995,10 +5995,10 @@
       <c r="I68" t="b">
         <v>0</v>
       </c>
-      <c r="J68" s="6" t="s">
+      <c r="J68" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K68" s="11" t="s">
+      <c r="K68" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L68" t="b">
@@ -6012,22 +6012,22 @@
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B69" t="s">
+      <c r="A69" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="17" t="s">
         <v>173</v>
       </c>
       <c r="G69">
@@ -6039,10 +6039,10 @@
       <c r="I69" t="b">
         <v>0</v>
       </c>
-      <c r="J69" s="6" t="s">
+      <c r="J69" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K69" s="11" t="s">
+      <c r="K69" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L69" t="b">
@@ -6056,22 +6056,22 @@
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B70" t="s">
+      <c r="A70" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" s="17" t="s">
         <v>174</v>
       </c>
       <c r="G70">
@@ -6083,10 +6083,10 @@
       <c r="I70" t="b">
         <v>0</v>
       </c>
-      <c r="J70" s="6" t="s">
+      <c r="J70" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K70" s="11" t="s">
+      <c r="K70" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L70" t="b">
@@ -6100,22 +6100,22 @@
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B71" t="s">
+      <c r="A71" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B71" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="17" t="s">
         <v>175</v>
       </c>
       <c r="G71">
@@ -6127,10 +6127,10 @@
       <c r="I71" t="b">
         <v>0</v>
       </c>
-      <c r="J71" s="6" t="s">
+      <c r="J71" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K71" s="11" t="s">
+      <c r="K71" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L71" t="b">
@@ -6144,22 +6144,22 @@
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B72" s="7" t="s">
+      <c r="A72" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B72" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="D72" s="7" t="s">
+      <c r="D72" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E72" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" s="17" t="s">
         <v>176</v>
       </c>
       <c r="G72">
@@ -6171,10 +6171,10 @@
       <c r="I72" t="b">
         <v>0</v>
       </c>
-      <c r="J72" s="6" t="s">
+      <c r="J72" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K72" s="11" t="s">
+      <c r="K72" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L72" t="b">
@@ -6188,22 +6188,22 @@
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B73" s="7" t="s">
+      <c r="A73" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B73" s="17" t="s">
         <v>358</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="17" t="s">
         <v>358</v>
       </c>
-      <c r="D73" s="7" t="s">
+      <c r="D73" s="17" t="s">
         <v>358</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" s="17" t="s">
         <v>389</v>
       </c>
-      <c r="F73" s="7" t="s">
+      <c r="F73" s="17" t="s">
         <v>420</v>
       </c>
       <c r="G73">
@@ -6215,10 +6215,10 @@
       <c r="I73" t="b">
         <v>0</v>
       </c>
-      <c r="J73" s="6" t="s">
+      <c r="J73" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K73" s="11" t="s">
+      <c r="K73" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L73" t="b">
@@ -6232,22 +6232,22 @@
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B74" s="7" t="s">
+      <c r="A74" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74" s="17" t="s">
         <v>359</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C74" s="17" t="s">
         <v>359</v>
       </c>
-      <c r="D74" s="7" t="s">
+      <c r="D74" s="17" t="s">
         <v>359</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" s="17" t="s">
         <v>390</v>
       </c>
-      <c r="F74" s="7" t="s">
+      <c r="F74" s="17" t="s">
         <v>421</v>
       </c>
       <c r="G74">
@@ -6259,10 +6259,10 @@
       <c r="I74" t="b">
         <v>0</v>
       </c>
-      <c r="J74" s="6" t="s">
+      <c r="J74" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K74" s="11" t="s">
+      <c r="K74" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L74" t="b">
@@ -6276,22 +6276,22 @@
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B75" s="7" t="s">
+      <c r="A75" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B75" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C75" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="D75" s="7" t="s">
+      <c r="D75" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" s="17" t="s">
         <v>391</v>
       </c>
-      <c r="F75" s="7" t="s">
+      <c r="F75" s="17" t="s">
         <v>422</v>
       </c>
       <c r="G75">
@@ -6303,10 +6303,10 @@
       <c r="I75" t="b">
         <v>0</v>
       </c>
-      <c r="J75" s="6" t="s">
+      <c r="J75" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K75" s="11" t="s">
+      <c r="K75" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L75" t="b">
@@ -6320,22 +6320,22 @@
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B76" t="s">
+      <c r="A76" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B76" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="17" t="s">
         <v>177</v>
       </c>
       <c r="G76">
@@ -6347,10 +6347,10 @@
       <c r="I76" t="b">
         <v>0</v>
       </c>
-      <c r="J76" s="6" t="s">
+      <c r="J76" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K76" s="11" t="s">
+      <c r="K76" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L76" t="b">
@@ -6364,22 +6364,22 @@
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B77" t="s">
+      <c r="A77" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B77" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" s="17" t="s">
         <v>178</v>
       </c>
       <c r="G77">
@@ -6391,10 +6391,10 @@
       <c r="I77" t="b">
         <v>0</v>
       </c>
-      <c r="J77" s="6" t="s">
+      <c r="J77" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K77" s="11" t="s">
+      <c r="K77" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L77" t="b">
@@ -6408,22 +6408,22 @@
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B78" t="s">
+      <c r="A78" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B78" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E78" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" s="17" t="s">
         <v>179</v>
       </c>
       <c r="G78">
@@ -6435,10 +6435,10 @@
       <c r="I78" t="b">
         <v>0</v>
       </c>
-      <c r="J78" s="6" t="s">
+      <c r="J78" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K78" s="11" t="s">
+      <c r="K78" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L78" t="b">
@@ -6452,22 +6452,22 @@
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B79" t="s">
+      <c r="A79" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79" s="17" t="s">
         <v>180</v>
       </c>
       <c r="G79">
@@ -6479,10 +6479,10 @@
       <c r="I79" t="b">
         <v>0</v>
       </c>
-      <c r="J79" s="6" t="s">
+      <c r="J79" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K79" s="11" t="s">
+      <c r="K79" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L79" t="b">
@@ -6496,22 +6496,22 @@
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B80" t="s">
+      <c r="A80" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B80" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" s="17" t="s">
         <v>181</v>
       </c>
       <c r="G80">
@@ -6523,10 +6523,10 @@
       <c r="I80" t="b">
         <v>0</v>
       </c>
-      <c r="J80" s="6" t="s">
+      <c r="J80" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K80" s="11" t="s">
+      <c r="K80" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L80" t="b">
@@ -6540,22 +6540,22 @@
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B81" t="s">
+      <c r="A81" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81" s="17" t="s">
         <v>182</v>
       </c>
       <c r="G81">
@@ -6567,10 +6567,10 @@
       <c r="I81" t="b">
         <v>0</v>
       </c>
-      <c r="J81" s="6" t="s">
+      <c r="J81" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K81" s="11" t="s">
+      <c r="K81" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L81" t="b">
@@ -6584,22 +6584,22 @@
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B82" t="s">
+      <c r="A82" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B82" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E82" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82" s="17" t="s">
         <v>183</v>
       </c>
       <c r="G82">
@@ -6611,10 +6611,10 @@
       <c r="I82" t="b">
         <v>0</v>
       </c>
-      <c r="J82" s="6" t="s">
+      <c r="J82" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K82" s="11" t="s">
+      <c r="K82" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L82" t="b">
@@ -6628,22 +6628,22 @@
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A83" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B83" t="s">
+      <c r="A83" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B83" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E83" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83" s="17" t="s">
         <v>184</v>
       </c>
       <c r="G83">
@@ -6655,10 +6655,10 @@
       <c r="I83" t="b">
         <v>0</v>
       </c>
-      <c r="J83" s="6" t="s">
+      <c r="J83" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K83" s="11" t="s">
+      <c r="K83" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L83" t="b">
@@ -6672,22 +6672,22 @@
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A84" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B84" t="s">
+      <c r="A84" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B84" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E84" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84" s="17" t="s">
         <v>185</v>
       </c>
       <c r="G84">
@@ -6699,10 +6699,10 @@
       <c r="I84" t="b">
         <v>0</v>
       </c>
-      <c r="J84" s="6" t="s">
+      <c r="J84" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K84" s="11" t="s">
+      <c r="K84" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L84" t="b">
@@ -6716,22 +6716,22 @@
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B85" t="s">
+      <c r="A85" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B85" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E85" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85" s="17" t="s">
         <v>186</v>
       </c>
       <c r="G85">
@@ -6743,10 +6743,10 @@
       <c r="I85" t="b">
         <v>0</v>
       </c>
-      <c r="J85" s="6" t="s">
+      <c r="J85" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K85" s="11" t="s">
+      <c r="K85" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L85" t="b">
@@ -6760,22 +6760,22 @@
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A86" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B86" t="s">
+      <c r="A86" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B86" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E86" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F86" s="17" t="s">
         <v>187</v>
       </c>
       <c r="G86">
@@ -6787,10 +6787,10 @@
       <c r="I86" t="b">
         <v>0</v>
       </c>
-      <c r="J86" s="6" t="s">
+      <c r="J86" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K86" s="11" t="s">
+      <c r="K86" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L86" t="b">
@@ -6804,22 +6804,22 @@
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A87" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B87" t="s">
+      <c r="A87" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B87" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E87" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F87" s="17" t="s">
         <v>188</v>
       </c>
       <c r="G87">
@@ -6831,10 +6831,10 @@
       <c r="I87" t="b">
         <v>0</v>
       </c>
-      <c r="J87" s="6" t="s">
+      <c r="J87" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K87" s="11" t="s">
+      <c r="K87" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L87" t="b">
@@ -6848,22 +6848,22 @@
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B88" t="s">
+      <c r="A88" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B88" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E88" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F88" s="17" t="s">
         <v>189</v>
       </c>
       <c r="G88">
@@ -6875,10 +6875,10 @@
       <c r="I88" t="b">
         <v>0</v>
       </c>
-      <c r="J88" s="6" t="s">
+      <c r="J88" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K88" s="11" t="s">
+      <c r="K88" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L88" t="b">
@@ -6892,22 +6892,22 @@
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B89" t="s">
+      <c r="A89" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B89" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E89" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F89" s="17" t="s">
         <v>190</v>
       </c>
       <c r="G89">
@@ -6919,10 +6919,10 @@
       <c r="I89" t="b">
         <v>0</v>
       </c>
-      <c r="J89" s="6" t="s">
+      <c r="J89" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K89" s="11" t="s">
+      <c r="K89" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L89" t="b">
@@ -6936,22 +6936,22 @@
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A90" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B90" t="s">
+      <c r="A90" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B90" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E90" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F90" s="17" t="s">
         <v>191</v>
       </c>
       <c r="G90">
@@ -6963,10 +6963,10 @@
       <c r="I90" t="b">
         <v>0</v>
       </c>
-      <c r="J90" s="6" t="s">
+      <c r="J90" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K90" s="11" t="s">
+      <c r="K90" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L90" t="b">
@@ -6980,22 +6980,22 @@
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A91" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B91" s="7" t="s">
+      <c r="A91" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B91" s="17" t="s">
         <v>361</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C91" s="17" t="s">
         <v>361</v>
       </c>
-      <c r="D91" s="7" t="s">
+      <c r="D91" s="17" t="s">
         <v>361</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E91" s="17" t="s">
         <v>392</v>
       </c>
-      <c r="F91" s="7" t="s">
+      <c r="F91" s="17" t="s">
         <v>423</v>
       </c>
       <c r="G91">
@@ -7007,10 +7007,10 @@
       <c r="I91" t="b">
         <v>0</v>
       </c>
-      <c r="J91" s="6" t="s">
+      <c r="J91" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K91" s="11" t="s">
+      <c r="K91" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L91" t="b">
@@ -7024,22 +7024,22 @@
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A92" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B92" s="7" t="s">
+      <c r="A92" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B92" s="17" t="s">
         <v>362</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="C92" s="17" t="s">
         <v>362</v>
       </c>
-      <c r="D92" s="7" t="s">
+      <c r="D92" s="17" t="s">
         <v>362</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E92" s="17" t="s">
         <v>393</v>
       </c>
-      <c r="F92" s="7" t="s">
+      <c r="F92" s="17" t="s">
         <v>424</v>
       </c>
       <c r="G92">
@@ -7051,10 +7051,10 @@
       <c r="I92" t="b">
         <v>0</v>
       </c>
-      <c r="J92" s="6" t="s">
+      <c r="J92" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K92" s="11" t="s">
+      <c r="K92" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L92" t="b">
@@ -7068,22 +7068,22 @@
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A93" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B93" t="s">
+      <c r="A93" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B93" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E93" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F93" s="17" t="s">
         <v>192</v>
       </c>
       <c r="G93">
@@ -7095,10 +7095,10 @@
       <c r="I93" t="b">
         <v>0</v>
       </c>
-      <c r="J93" s="6" t="s">
+      <c r="J93" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K93" s="11" t="s">
+      <c r="K93" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L93" t="b">
@@ -7112,22 +7112,22 @@
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B94" t="s">
+      <c r="A94" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B94" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E94" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" s="17" t="s">
         <v>193</v>
       </c>
       <c r="G94">
@@ -7139,10 +7139,10 @@
       <c r="I94" t="b">
         <v>0</v>
       </c>
-      <c r="J94" s="6" t="s">
+      <c r="J94" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K94" s="11" t="s">
+      <c r="K94" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L94" t="b">
@@ -7156,22 +7156,22 @@
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B95" t="s">
+      <c r="A95" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B95" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E95" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F95" s="17" t="s">
         <v>194</v>
       </c>
       <c r="G95">
@@ -7183,10 +7183,10 @@
       <c r="I95" t="b">
         <v>0</v>
       </c>
-      <c r="J95" s="6" t="s">
+      <c r="J95" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K95" s="11" t="s">
+      <c r="K95" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L95" t="b">
@@ -7200,22 +7200,22 @@
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A96" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B96" t="s">
+      <c r="A96" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B96" s="17" t="s">
         <v>308</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="17" t="s">
         <v>308</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="17" t="s">
         <v>308</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E96" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F96" s="17" t="s">
         <v>195</v>
       </c>
       <c r="G96">
@@ -7227,10 +7227,10 @@
       <c r="I96" t="b">
         <v>0</v>
       </c>
-      <c r="J96" s="6" t="s">
+      <c r="J96" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K96" s="11" t="s">
+      <c r="K96" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L96" t="b">
@@ -7244,22 +7244,22 @@
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A97" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B97" t="s">
+      <c r="A97" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B97" s="17" t="s">
         <v>309</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="17" t="s">
         <v>309</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="17" t="s">
         <v>309</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E97" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F97" s="17" t="s">
         <v>196</v>
       </c>
       <c r="G97">
@@ -7271,10 +7271,10 @@
       <c r="I97" t="b">
         <v>0</v>
       </c>
-      <c r="J97" s="6" t="s">
+      <c r="J97" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K97" s="11" t="s">
+      <c r="K97" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L97" t="b">
@@ -7288,22 +7288,22 @@
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A98" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B98" t="s">
+      <c r="A98" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B98" s="17" t="s">
         <v>310</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="17" t="s">
         <v>310</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="17" t="s">
         <v>310</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E98" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F98" s="17" t="s">
         <v>197</v>
       </c>
       <c r="G98">
@@ -7315,10 +7315,10 @@
       <c r="I98" t="b">
         <v>0</v>
       </c>
-      <c r="J98" s="6" t="s">
+      <c r="J98" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K98" s="11" t="s">
+      <c r="K98" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L98" t="b">
@@ -7332,22 +7332,22 @@
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A99" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B99" t="s">
+      <c r="A99" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B99" s="17" t="s">
         <v>311</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="17" t="s">
         <v>311</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="17" t="s">
         <v>311</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E99" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F99" s="17" t="s">
         <v>198</v>
       </c>
       <c r="G99">
@@ -7359,10 +7359,10 @@
       <c r="I99" t="b">
         <v>0</v>
       </c>
-      <c r="J99" s="6" t="s">
+      <c r="J99" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K99" s="11" t="s">
+      <c r="K99" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L99" t="b">
@@ -7376,22 +7376,22 @@
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A100" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B100" t="s">
+      <c r="A100" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B100" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E100" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F100" s="17" t="s">
         <v>199</v>
       </c>
       <c r="G100">
@@ -7403,10 +7403,10 @@
       <c r="I100" t="b">
         <v>0</v>
       </c>
-      <c r="J100" s="6" t="s">
+      <c r="J100" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K100" s="11" t="s">
+      <c r="K100" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L100" t="b">
@@ -7420,22 +7420,22 @@
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A101" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B101" t="s">
+      <c r="A101" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E101" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F101" s="17" t="s">
         <v>200</v>
       </c>
       <c r="G101">
@@ -7447,10 +7447,10 @@
       <c r="I101" t="b">
         <v>0</v>
       </c>
-      <c r="J101" s="6" t="s">
+      <c r="J101" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K101" s="11" t="s">
+      <c r="K101" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L101" t="b">
@@ -7464,22 +7464,22 @@
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A102" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B102" t="s">
+      <c r="A102" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B102" s="17" t="s">
         <v>314</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="17" t="s">
         <v>314</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="17" t="s">
         <v>314</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E102" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F102" s="17" t="s">
         <v>201</v>
       </c>
       <c r="G102">
@@ -7491,10 +7491,10 @@
       <c r="I102" t="b">
         <v>0</v>
       </c>
-      <c r="J102" s="6" t="s">
+      <c r="J102" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K102" s="11" t="s">
+      <c r="K102" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L102" t="b">
@@ -7508,22 +7508,22 @@
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A103" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B103" t="s">
+      <c r="A103" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B103" s="17" t="s">
         <v>315</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="17" t="s">
         <v>315</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" s="17" t="s">
         <v>315</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E103" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F103" s="17" t="s">
         <v>202</v>
       </c>
       <c r="G103">
@@ -7535,10 +7535,10 @@
       <c r="I103" t="b">
         <v>0</v>
       </c>
-      <c r="J103" s="6" t="s">
+      <c r="J103" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="K103" s="12" t="s">
+      <c r="K103" s="10" t="s">
         <v>13</v>
       </c>
       <c r="L103" t="b">
@@ -7552,22 +7552,22 @@
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A104" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B104" t="s">
+      <c r="A104" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B104" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E104" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F104" s="17" t="s">
         <v>203</v>
       </c>
       <c r="G104">
@@ -7579,10 +7579,10 @@
       <c r="I104" t="b">
         <v>0</v>
       </c>
-      <c r="J104" s="6" t="s">
+      <c r="J104" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="K104" s="12" t="s">
+      <c r="K104" s="10" t="s">
         <v>13</v>
       </c>
       <c r="L104" t="b">
@@ -7596,22 +7596,22 @@
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A105" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B105" t="s">
+      <c r="A105" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B105" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E105" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F105" s="17" t="s">
         <v>204</v>
       </c>
       <c r="G105">
@@ -7623,10 +7623,10 @@
       <c r="I105" t="b">
         <v>0</v>
       </c>
-      <c r="J105" s="6" t="s">
+      <c r="J105" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="K105" s="12" t="s">
+      <c r="K105" s="10" t="s">
         <v>13</v>
       </c>
       <c r="L105" t="b">
@@ -7640,22 +7640,22 @@
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A106" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B106" t="s">
+      <c r="A106" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B106" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E106" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F106" s="17" t="s">
         <v>205</v>
       </c>
       <c r="G106">
@@ -7667,10 +7667,10 @@
       <c r="I106" t="b">
         <v>0</v>
       </c>
-      <c r="J106" s="6" t="s">
+      <c r="J106" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="K106" s="12" t="s">
+      <c r="K106" s="10" t="s">
         <v>13</v>
       </c>
       <c r="L106" t="b">
@@ -7684,22 +7684,22 @@
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A107" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B107" s="7" t="s">
+      <c r="A107" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B107" s="17" t="s">
         <v>363</v>
       </c>
-      <c r="C107" s="7" t="s">
+      <c r="C107" s="17" t="s">
         <v>363</v>
       </c>
-      <c r="D107" s="7" t="s">
+      <c r="D107" s="17" t="s">
         <v>363</v>
       </c>
-      <c r="E107" s="7" t="s">
+      <c r="E107" s="17" t="s">
         <v>401</v>
       </c>
-      <c r="F107" s="7" t="s">
+      <c r="F107" s="17" t="s">
         <v>425</v>
       </c>
       <c r="G107">
@@ -7711,10 +7711,10 @@
       <c r="I107" t="b">
         <v>0</v>
       </c>
-      <c r="J107" s="6" t="s">
+      <c r="J107" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K107" s="11" t="s">
+      <c r="K107" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L107" t="b">
@@ -7728,22 +7728,22 @@
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A108" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B108" t="s">
+      <c r="A108" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B108" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E108" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F108" s="17" t="s">
         <v>206</v>
       </c>
       <c r="G108">
@@ -7755,10 +7755,10 @@
       <c r="I108" t="b">
         <v>0</v>
       </c>
-      <c r="J108" s="6" t="s">
+      <c r="J108" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K108" s="11" t="s">
+      <c r="K108" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L108" t="b">
@@ -7772,22 +7772,22 @@
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A109" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B109" t="s">
+      <c r="A109" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B109" s="17" t="s">
         <v>320</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="17" t="s">
         <v>320</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="17" t="s">
         <v>320</v>
       </c>
-      <c r="E109" t="s">
+      <c r="E109" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="F109" t="s">
+      <c r="F109" s="17" t="s">
         <v>207</v>
       </c>
       <c r="G109">
@@ -7799,10 +7799,10 @@
       <c r="I109" t="b">
         <v>0</v>
       </c>
-      <c r="J109" s="6" t="s">
+      <c r="J109" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K109" s="11" t="s">
+      <c r="K109" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L109" t="b">
@@ -7816,22 +7816,22 @@
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A110" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B110" t="s">
+      <c r="A110" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B110" s="17" t="s">
         <v>321</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="17" t="s">
         <v>321</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="17" t="s">
         <v>321</v>
       </c>
-      <c r="E110" t="s">
+      <c r="E110" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="F110" t="s">
+      <c r="F110" s="17" t="s">
         <v>208</v>
       </c>
       <c r="G110">
@@ -7843,10 +7843,10 @@
       <c r="I110" t="b">
         <v>0</v>
       </c>
-      <c r="J110" s="6" t="s">
+      <c r="J110" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K110" s="11" t="s">
+      <c r="K110" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L110" t="b">
@@ -7860,22 +7860,22 @@
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A111" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B111" t="s">
+      <c r="A111" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B111" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="E111" t="s">
+      <c r="E111" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="F111" t="s">
+      <c r="F111" s="17" t="s">
         <v>209</v>
       </c>
       <c r="G111">
@@ -7887,10 +7887,10 @@
       <c r="I111" t="b">
         <v>0</v>
       </c>
-      <c r="J111" s="6" t="s">
+      <c r="J111" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K111" s="11" t="s">
+      <c r="K111" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L111" t="b">
@@ -7904,22 +7904,22 @@
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A112" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B112" t="s">
+      <c r="A112" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B112" s="17" t="s">
         <v>323</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="17" t="s">
         <v>323</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="17" t="s">
         <v>323</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E112" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F112" s="17" t="s">
         <v>324</v>
       </c>
       <c r="G112">
@@ -7931,10 +7931,10 @@
       <c r="I112" t="b">
         <v>0</v>
       </c>
-      <c r="J112" s="6" t="s">
+      <c r="J112" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K112" s="11" t="s">
+      <c r="K112" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L112" t="b">
@@ -7948,22 +7948,22 @@
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A113" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B113" t="s">
+      <c r="A113" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B113" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="E113" t="s">
+      <c r="E113" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="F113" t="s">
+      <c r="F113" s="17" t="s">
         <v>210</v>
       </c>
       <c r="G113">
@@ -7975,10 +7975,10 @@
       <c r="I113" t="b">
         <v>0</v>
       </c>
-      <c r="J113" s="6" t="s">
+      <c r="J113" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K113" s="11" t="s">
+      <c r="K113" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L113" t="b">
@@ -7992,22 +7992,22 @@
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A114" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B114" t="s">
+      <c r="A114" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B114" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="E114" t="s">
+      <c r="E114" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="F114" t="s">
+      <c r="F114" s="17" t="s">
         <v>211</v>
       </c>
       <c r="G114">
@@ -8019,10 +8019,10 @@
       <c r="I114" t="b">
         <v>0</v>
       </c>
-      <c r="J114" s="6" t="s">
+      <c r="J114" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K114" s="11" t="s">
+      <c r="K114" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L114" t="b">
@@ -8036,22 +8036,22 @@
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A115" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B115" s="7" t="s">
+      <c r="A115" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B115" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="C115" s="7" t="s">
+      <c r="C115" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="D115" s="7" t="s">
+      <c r="D115" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="E115" t="s">
+      <c r="E115" s="17" t="s">
         <v>394</v>
       </c>
-      <c r="F115" s="7" t="s">
+      <c r="F115" s="17" t="s">
         <v>426</v>
       </c>
       <c r="G115">
@@ -8063,10 +8063,10 @@
       <c r="I115" t="b">
         <v>0</v>
       </c>
-      <c r="J115" s="6" t="s">
+      <c r="J115" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K115" s="11" t="s">
+      <c r="K115" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L115" t="b">
@@ -8080,22 +8080,22 @@
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A116" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B116" s="7" t="s">
+      <c r="A116" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B116" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="C116" s="7" t="s">
+      <c r="C116" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="D116" s="7" t="s">
+      <c r="D116" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E116" s="17" t="s">
         <v>395</v>
       </c>
-      <c r="F116" s="7" t="s">
+      <c r="F116" s="17" t="s">
         <v>427</v>
       </c>
       <c r="G116">
@@ -8107,10 +8107,10 @@
       <c r="I116" t="b">
         <v>0</v>
       </c>
-      <c r="J116" s="6" t="s">
+      <c r="J116" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K116" s="11" t="s">
+      <c r="K116" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L116" t="b">
@@ -8124,22 +8124,22 @@
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A117" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B117" t="s">
+      <c r="A117" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B117" s="17" t="s">
         <v>327</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="17" t="s">
         <v>327</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117" s="17" t="s">
         <v>327</v>
       </c>
-      <c r="E117" t="s">
+      <c r="E117" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="F117" t="s">
+      <c r="F117" s="17" t="s">
         <v>212</v>
       </c>
       <c r="G117">
@@ -8151,10 +8151,10 @@
       <c r="I117" t="b">
         <v>0</v>
       </c>
-      <c r="J117" s="6" t="s">
+      <c r="J117" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K117" s="11" t="s">
+      <c r="K117" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L117" t="b">
@@ -8168,22 +8168,22 @@
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A118" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B118" s="7" t="s">
+      <c r="A118" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B118" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="C118" s="7" t="s">
+      <c r="C118" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="D118" s="7" t="s">
+      <c r="D118" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="E118" t="s">
+      <c r="E118" s="17" t="s">
         <v>396</v>
       </c>
-      <c r="F118" s="7" t="s">
+      <c r="F118" s="17" t="s">
         <v>428</v>
       </c>
       <c r="G118">
@@ -8195,10 +8195,10 @@
       <c r="I118" t="b">
         <v>0</v>
       </c>
-      <c r="J118" s="6" t="s">
+      <c r="J118" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K118" s="11" t="s">
+      <c r="K118" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L118" t="b">
@@ -8212,22 +8212,22 @@
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A119" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B119" t="s">
+      <c r="A119" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B119" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="E119" t="s">
+      <c r="E119" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="F119" t="s">
+      <c r="F119" s="17" t="s">
         <v>213</v>
       </c>
       <c r="G119">
@@ -8239,10 +8239,10 @@
       <c r="I119" t="b">
         <v>0</v>
       </c>
-      <c r="J119" s="6" t="s">
+      <c r="J119" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K119" s="11" t="s">
+      <c r="K119" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L119" t="b">
@@ -8256,22 +8256,22 @@
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A120" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B120" s="7" t="s">
+      <c r="A120" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B120" s="17" t="s">
         <v>367</v>
       </c>
-      <c r="C120" s="7" t="s">
+      <c r="C120" s="17" t="s">
         <v>367</v>
       </c>
-      <c r="D120" s="7" t="s">
+      <c r="D120" s="17" t="s">
         <v>367</v>
       </c>
-      <c r="E120" t="s">
+      <c r="E120" s="17" t="s">
         <v>397</v>
       </c>
-      <c r="F120" s="7" t="s">
+      <c r="F120" s="17" t="s">
         <v>429</v>
       </c>
       <c r="G120">
@@ -8283,10 +8283,10 @@
       <c r="I120" t="b">
         <v>0</v>
       </c>
-      <c r="J120" s="6" t="s">
+      <c r="J120" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K120" s="11" t="s">
+      <c r="K120" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L120" t="b">
@@ -8300,22 +8300,22 @@
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A121" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B121" t="s">
+      <c r="A121" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B121" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="E121" t="s">
+      <c r="E121" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="F121" t="s">
+      <c r="F121" s="17" t="s">
         <v>214</v>
       </c>
       <c r="G121">
@@ -8327,10 +8327,10 @@
       <c r="I121" t="b">
         <v>0</v>
       </c>
-      <c r="J121" s="6" t="s">
+      <c r="J121" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K121" s="11" t="s">
+      <c r="K121" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L121" t="b">
@@ -8344,22 +8344,22 @@
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A122" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B122" s="7" t="s">
+      <c r="A122" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B122" s="17" t="s">
         <v>368</v>
       </c>
-      <c r="C122" s="7" t="s">
+      <c r="C122" s="17" t="s">
         <v>368</v>
       </c>
-      <c r="D122" s="7" t="s">
+      <c r="D122" s="17" t="s">
         <v>368</v>
       </c>
-      <c r="E122" t="s">
+      <c r="E122" s="17" t="s">
         <v>398</v>
       </c>
-      <c r="F122" s="7" t="s">
+      <c r="F122" s="17" t="s">
         <v>430</v>
       </c>
       <c r="G122">
@@ -8371,10 +8371,10 @@
       <c r="I122" t="b">
         <v>0</v>
       </c>
-      <c r="J122" s="6" t="s">
+      <c r="J122" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K122" s="11" t="s">
+      <c r="K122" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L122" t="b">
@@ -8388,22 +8388,22 @@
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A123" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B123" t="s">
+      <c r="A123" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B123" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="E123" t="s">
+      <c r="E123" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="F123" t="s">
+      <c r="F123" s="17" t="s">
         <v>215</v>
       </c>
       <c r="G123">
@@ -8415,10 +8415,10 @@
       <c r="I123" t="b">
         <v>0</v>
       </c>
-      <c r="J123" s="6" t="s">
+      <c r="J123" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K123" s="11" t="s">
+      <c r="K123" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L123" t="b">
@@ -8432,22 +8432,22 @@
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A124" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B124" t="s">
+      <c r="A124" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B124" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D124" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="E124" t="s">
+      <c r="E124" s="17" t="s">
         <v>400</v>
       </c>
-      <c r="F124" s="7" t="s">
+      <c r="F124" s="17" t="s">
         <v>431</v>
       </c>
       <c r="G124">
@@ -8459,10 +8459,10 @@
       <c r="I124" t="b">
         <v>0</v>
       </c>
-      <c r="J124" s="6" t="s">
+      <c r="J124" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K124" s="11" t="s">
+      <c r="K124" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L124" t="b">
@@ -8476,22 +8476,22 @@
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A125" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B125" s="7" t="s">
+      <c r="A125" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B125" s="17" t="s">
         <v>370</v>
       </c>
-      <c r="C125" s="7" t="s">
+      <c r="C125" s="17" t="s">
         <v>370</v>
       </c>
-      <c r="D125" s="7" t="s">
+      <c r="D125" s="17" t="s">
         <v>370</v>
       </c>
-      <c r="E125" t="s">
+      <c r="E125" s="17" t="s">
         <v>399</v>
       </c>
-      <c r="F125" s="7" t="s">
+      <c r="F125" s="17" t="s">
         <v>432</v>
       </c>
       <c r="G125">
@@ -8503,10 +8503,10 @@
       <c r="I125" t="b">
         <v>0</v>
       </c>
-      <c r="J125" s="6" t="s">
+      <c r="J125" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K125" s="11" t="s">
+      <c r="K125" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L125" t="b">
@@ -8520,22 +8520,22 @@
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A126" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B126" t="s">
+      <c r="A126" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B126" s="17" t="s">
         <v>331</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="17" t="s">
         <v>331</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D126" s="17" t="s">
         <v>331</v>
       </c>
-      <c r="E126" t="s">
+      <c r="E126" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="F126" t="s">
+      <c r="F126" s="17" t="s">
         <v>332</v>
       </c>
       <c r="G126">
@@ -8547,10 +8547,10 @@
       <c r="I126" t="b">
         <v>0</v>
       </c>
-      <c r="J126" s="6" t="s">
+      <c r="J126" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K126" s="11" t="s">
+      <c r="K126" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L126" t="b">
@@ -8564,22 +8564,22 @@
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A127" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B127" t="s">
+      <c r="A127" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B127" s="17" t="s">
         <v>333</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="17" t="s">
         <v>333</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D127" s="17" t="s">
         <v>333</v>
       </c>
-      <c r="E127" t="s">
+      <c r="E127" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="F127" t="s">
+      <c r="F127" s="17" t="s">
         <v>334</v>
       </c>
       <c r="G127">
@@ -8591,10 +8591,10 @@
       <c r="I127" t="b">
         <v>0</v>
       </c>
-      <c r="J127" s="6" t="s">
+      <c r="J127" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K127" s="11" t="s">
+      <c r="K127" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L127" t="b">
@@ -8608,22 +8608,22 @@
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A128" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B128" t="s">
+      <c r="A128" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B128" s="17" t="s">
         <v>335</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="17" t="s">
         <v>335</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D128" s="17" t="s">
         <v>335</v>
       </c>
-      <c r="E128" t="s">
+      <c r="E128" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="F128" t="s">
+      <c r="F128" s="17" t="s">
         <v>336</v>
       </c>
       <c r="G128">
@@ -8635,10 +8635,10 @@
       <c r="I128" t="b">
         <v>0</v>
       </c>
-      <c r="J128" s="6" t="s">
+      <c r="J128" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K128" s="11" t="s">
+      <c r="K128" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L128" t="b">
@@ -8652,22 +8652,22 @@
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A129" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B129" t="s">
+      <c r="A129" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B129" s="17" t="s">
         <v>337</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="17" t="s">
         <v>337</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D129" s="17" t="s">
         <v>337</v>
       </c>
-      <c r="E129" t="s">
+      <c r="E129" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="F129" t="s">
+      <c r="F129" s="17" t="s">
         <v>230</v>
       </c>
       <c r="G129">
@@ -8679,10 +8679,10 @@
       <c r="I129" t="b">
         <v>0</v>
       </c>
-      <c r="J129" s="6" t="s">
+      <c r="J129" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="K129" s="12" t="s">
+      <c r="K129" s="10" t="s">
         <v>13</v>
       </c>
       <c r="L129" t="b">
@@ -8696,22 +8696,22 @@
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A130" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B130" t="s">
+      <c r="A130" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B130" s="17" t="s">
         <v>570</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="17" t="s">
         <v>570</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D130" s="17" t="s">
         <v>570</v>
       </c>
-      <c r="E130" t="s">
+      <c r="E130" s="17" t="s">
         <v>564</v>
       </c>
-      <c r="F130" t="s">
+      <c r="F130" s="17" t="s">
         <v>576</v>
       </c>
       <c r="G130">
@@ -8723,10 +8723,10 @@
       <c r="I130" t="b">
         <v>0</v>
       </c>
-      <c r="J130" s="6" t="s">
+      <c r="J130" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="K130" s="12" t="s">
+      <c r="K130" s="10" t="s">
         <v>13</v>
       </c>
       <c r="L130" t="b">
@@ -8740,22 +8740,22 @@
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A131" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B131" t="s">
+      <c r="A131" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B131" s="17" t="s">
         <v>571</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="17" t="s">
         <v>571</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D131" s="17" t="s">
         <v>571</v>
       </c>
-      <c r="E131" t="s">
+      <c r="E131" s="17" t="s">
         <v>565</v>
       </c>
-      <c r="F131" t="s">
+      <c r="F131" s="17" t="s">
         <v>577</v>
       </c>
       <c r="G131">
@@ -8767,10 +8767,10 @@
       <c r="I131" t="b">
         <v>0</v>
       </c>
-      <c r="J131" s="6" t="s">
+      <c r="J131" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="K131" s="12" t="s">
+      <c r="K131" s="10" t="s">
         <v>13</v>
       </c>
       <c r="L131" t="b">
@@ -8784,22 +8784,22 @@
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A132" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B132" t="s">
+      <c r="A132" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B132" s="17" t="s">
         <v>572</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="17" t="s">
         <v>572</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D132" s="17" t="s">
         <v>572</v>
       </c>
-      <c r="E132" t="s">
+      <c r="E132" s="17" t="s">
         <v>566</v>
       </c>
-      <c r="F132" t="s">
+      <c r="F132" s="17" t="s">
         <v>578</v>
       </c>
       <c r="G132">
@@ -8811,10 +8811,10 @@
       <c r="I132" t="b">
         <v>0</v>
       </c>
-      <c r="J132" s="6" t="s">
+      <c r="J132" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="K132" s="12" t="s">
+      <c r="K132" s="10" t="s">
         <v>13</v>
       </c>
       <c r="L132" t="b">
@@ -8828,22 +8828,22 @@
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A133" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B133" t="s">
+      <c r="A133" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B133" s="17" t="s">
         <v>573</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="17" t="s">
         <v>573</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D133" s="17" t="s">
         <v>573</v>
       </c>
-      <c r="E133" t="s">
+      <c r="E133" s="17" t="s">
         <v>567</v>
       </c>
-      <c r="F133" s="19" t="s">
+      <c r="F133" s="18" t="s">
         <v>581</v>
       </c>
       <c r="G133">
@@ -8855,10 +8855,10 @@
       <c r="I133" t="b">
         <v>0</v>
       </c>
-      <c r="J133" s="6" t="s">
+      <c r="J133" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="K133" s="12" t="s">
+      <c r="K133" s="10" t="s">
         <v>13</v>
       </c>
       <c r="L133" t="b">
@@ -8872,22 +8872,22 @@
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A134" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B134" t="s">
+      <c r="A134" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B134" s="17" t="s">
         <v>574</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="17" t="s">
         <v>574</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D134" s="17" t="s">
         <v>574</v>
       </c>
-      <c r="E134" t="s">
+      <c r="E134" s="17" t="s">
         <v>568</v>
       </c>
-      <c r="F134" t="s">
+      <c r="F134" s="17" t="s">
         <v>579</v>
       </c>
       <c r="G134">
@@ -8899,10 +8899,10 @@
       <c r="I134" t="b">
         <v>0</v>
       </c>
-      <c r="J134" s="6" t="s">
+      <c r="J134" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="K134" s="12" t="s">
+      <c r="K134" s="10" t="s">
         <v>13</v>
       </c>
       <c r="L134" t="b">
@@ -8916,22 +8916,22 @@
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A135" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B135" t="s">
+      <c r="A135" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B135" s="17" t="s">
         <v>575</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="17" t="s">
         <v>575</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D135" s="17" t="s">
         <v>575</v>
       </c>
-      <c r="E135" t="s">
+      <c r="E135" s="17" t="s">
         <v>569</v>
       </c>
-      <c r="F135" t="s">
+      <c r="F135" s="17" t="s">
         <v>580</v>
       </c>
       <c r="G135">
@@ -8943,10 +8943,10 @@
       <c r="I135" t="b">
         <v>0</v>
       </c>
-      <c r="J135" s="6" t="s">
+      <c r="J135" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="K135" s="12" t="s">
+      <c r="K135" s="10" t="s">
         <v>13</v>
       </c>
       <c r="L135" t="b">
@@ -8975,9 +8975,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F139"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B148" sqref="B148"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A119" sqref="A119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9030,7 +9030,7 @@
       <c r="C3" t="s">
         <v>434</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>235</v>
       </c>
       <c r="F3" t="s">
@@ -9041,16 +9041,17 @@
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="17" t="s">
         <v>433</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="17" t="s">
         <v>433</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="19" t="s">
         <v>23</v>
       </c>
     </row>
@@ -9058,16 +9059,17 @@
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="17" t="s">
         <v>435</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="17" t="s">
         <v>435</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="17"/>
+      <c r="E5" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="19" t="s">
         <v>23</v>
       </c>
     </row>
@@ -9075,16 +9077,17 @@
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="17" t="s">
         <v>551</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="17" t="s">
         <v>551</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="17"/>
+      <c r="E6" s="17" t="s">
         <v>358</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9092,16 +9095,17 @@
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="17" t="s">
         <v>487</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="17" t="s">
         <v>487</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D7" s="17"/>
+      <c r="E7" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9109,16 +9113,17 @@
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="17" t="s">
         <v>486</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="17" t="s">
         <v>486</v>
       </c>
-      <c r="E8" t="s">
+      <c r="D8" s="17"/>
+      <c r="E8" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9126,16 +9131,17 @@
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="17" t="s">
         <v>485</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="17" t="s">
         <v>485</v>
       </c>
-      <c r="E9" t="s">
+      <c r="D9" s="17"/>
+      <c r="E9" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9143,16 +9149,17 @@
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="17" t="s">
         <v>484</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="17" t="s">
         <v>484</v>
       </c>
-      <c r="E10" t="s">
+      <c r="D10" s="17"/>
+      <c r="E10" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9160,16 +9167,17 @@
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="17" t="s">
         <v>483</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="17" t="s">
         <v>483</v>
       </c>
-      <c r="E11" t="s">
+      <c r="D11" s="17"/>
+      <c r="E11" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9177,16 +9185,17 @@
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="17" t="s">
         <v>550</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="17" t="s">
         <v>550</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="D12" s="17"/>
+      <c r="E12" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9194,16 +9203,17 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="17" t="s">
         <v>549</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="17" t="s">
         <v>549</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="D13" s="17"/>
+      <c r="E13" s="17" t="s">
         <v>356</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9211,16 +9221,17 @@
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="17" t="s">
         <v>548</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="17" t="s">
         <v>548</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="D14" s="17"/>
+      <c r="E14" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9228,16 +9239,17 @@
       <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="17" t="s">
         <v>547</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="17" t="s">
         <v>547</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="D15" s="17"/>
+      <c r="E15" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9245,16 +9257,17 @@
       <c r="A16" t="s">
         <v>11</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="17" t="s">
         <v>440</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="17" t="s">
         <v>440</v>
       </c>
-      <c r="E16" t="s">
+      <c r="D16" s="17"/>
+      <c r="E16" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9262,16 +9275,17 @@
       <c r="A17" t="s">
         <v>11</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="17" t="s">
         <v>482</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="17" t="s">
         <v>482</v>
       </c>
-      <c r="E17" t="s">
+      <c r="D17" s="17"/>
+      <c r="E17" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9279,16 +9293,17 @@
       <c r="A18" t="s">
         <v>11</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="17" t="s">
         <v>481</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="17" t="s">
         <v>481</v>
       </c>
-      <c r="E18" t="s">
+      <c r="D18" s="17"/>
+      <c r="E18" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9296,16 +9311,17 @@
       <c r="A19" t="s">
         <v>11</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="17" t="s">
         <v>480</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="17" t="s">
         <v>480</v>
       </c>
-      <c r="E19" t="s">
+      <c r="D19" s="17"/>
+      <c r="E19" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9313,16 +9329,17 @@
       <c r="A20" t="s">
         <v>11</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="17" t="s">
         <v>479</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="17" t="s">
         <v>479</v>
       </c>
-      <c r="E20" t="s">
+      <c r="D20" s="17"/>
+      <c r="E20" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9330,16 +9347,17 @@
       <c r="A21" t="s">
         <v>11</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="17" t="s">
         <v>478</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="17" t="s">
         <v>478</v>
       </c>
-      <c r="E21" t="s">
+      <c r="D21" s="17"/>
+      <c r="E21" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9347,16 +9365,17 @@
       <c r="A22" t="s">
         <v>11</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="17" t="s">
         <v>477</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="17" t="s">
         <v>477</v>
       </c>
-      <c r="E22" t="s">
+      <c r="D22" s="17"/>
+      <c r="E22" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9364,16 +9383,17 @@
       <c r="A23" t="s">
         <v>11</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="E23" t="s">
+      <c r="D23" s="17"/>
+      <c r="E23" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9381,16 +9401,17 @@
       <c r="A24" t="s">
         <v>11</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="17" t="s">
         <v>475</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="17" t="s">
         <v>475</v>
       </c>
-      <c r="E24" t="s">
+      <c r="D24" s="17"/>
+      <c r="E24" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9398,16 +9419,17 @@
       <c r="A25" t="s">
         <v>11</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="17" t="s">
         <v>474</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="17" t="s">
         <v>474</v>
       </c>
-      <c r="E25" t="s">
+      <c r="D25" s="17"/>
+      <c r="E25" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9415,16 +9437,17 @@
       <c r="A26" t="s">
         <v>11</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="17" t="s">
         <v>473</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="17" t="s">
         <v>473</v>
       </c>
-      <c r="E26" t="s">
+      <c r="D26" s="17"/>
+      <c r="E26" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9432,16 +9455,17 @@
       <c r="A27" t="s">
         <v>11</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="17" t="s">
         <v>439</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="17" t="s">
         <v>439</v>
       </c>
-      <c r="E27" t="s">
+      <c r="D27" s="17"/>
+      <c r="E27" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9449,16 +9473,17 @@
       <c r="A28" t="s">
         <v>11</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="17" t="s">
         <v>472</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="17" t="s">
         <v>472</v>
       </c>
-      <c r="E28" t="s">
+      <c r="D28" s="17"/>
+      <c r="E28" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9466,16 +9491,17 @@
       <c r="A29" t="s">
         <v>11</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="17" t="s">
         <v>471</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="17" t="s">
         <v>471</v>
       </c>
-      <c r="E29" t="s">
+      <c r="D29" s="17"/>
+      <c r="E29" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9483,16 +9509,17 @@
       <c r="A30" t="s">
         <v>11</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="17" t="s">
         <v>470</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="17" t="s">
         <v>470</v>
       </c>
-      <c r="E30" t="s">
+      <c r="D30" s="17"/>
+      <c r="E30" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9500,16 +9527,17 @@
       <c r="A31" t="s">
         <v>11</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="E31" t="s">
+      <c r="D31" s="17"/>
+      <c r="E31" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9517,16 +9545,17 @@
       <c r="A32" t="s">
         <v>11</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="17" t="s">
         <v>468</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="17" t="s">
         <v>468</v>
       </c>
-      <c r="E32" t="s">
+      <c r="D32" s="17"/>
+      <c r="E32" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9534,16 +9563,17 @@
       <c r="A33" t="s">
         <v>11</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="17" t="s">
         <v>467</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="17" t="s">
         <v>467</v>
       </c>
-      <c r="E33" t="s">
+      <c r="D33" s="17"/>
+      <c r="E33" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9551,16 +9581,17 @@
       <c r="A34" t="s">
         <v>11</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="17" t="s">
         <v>546</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="17" t="s">
         <v>546</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="D34" s="17"/>
+      <c r="E34" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9568,16 +9599,17 @@
       <c r="A35" t="s">
         <v>11</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="17" t="s">
         <v>545</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="17" t="s">
         <v>545</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="D35" s="17"/>
+      <c r="E35" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9585,16 +9617,17 @@
       <c r="A36" t="s">
         <v>11</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="17" t="s">
         <v>466</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="17" t="s">
         <v>466</v>
       </c>
-      <c r="E36" t="s">
+      <c r="D36" s="17"/>
+      <c r="E36" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9602,16 +9635,17 @@
       <c r="A37" t="s">
         <v>11</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="17" t="s">
         <v>465</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="17" t="s">
         <v>465</v>
       </c>
-      <c r="E37" t="s">
+      <c r="D37" s="17"/>
+      <c r="E37" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9619,16 +9653,17 @@
       <c r="A38" t="s">
         <v>11</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="17" t="s">
         <v>438</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="17" t="s">
         <v>438</v>
       </c>
-      <c r="E38" t="s">
+      <c r="D38" s="17"/>
+      <c r="E38" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9636,16 +9671,17 @@
       <c r="A39" t="s">
         <v>11</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="17" t="s">
         <v>464</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="17" t="s">
         <v>464</v>
       </c>
-      <c r="E39" t="s">
+      <c r="D39" s="17"/>
+      <c r="E39" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9653,16 +9689,17 @@
       <c r="A40" t="s">
         <v>11</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="17" t="s">
         <v>463</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="17" t="s">
         <v>463</v>
       </c>
-      <c r="E40" t="s">
+      <c r="D40" s="17"/>
+      <c r="E40" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9670,16 +9707,17 @@
       <c r="A41" t="s">
         <v>11</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="17" t="s">
         <v>462</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="17" t="s">
         <v>462</v>
       </c>
-      <c r="E41" t="s">
+      <c r="D41" s="17"/>
+      <c r="E41" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9687,16 +9725,17 @@
       <c r="A42" t="s">
         <v>11</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="17" t="s">
         <v>461</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="17" t="s">
         <v>461</v>
       </c>
-      <c r="E42" t="s">
+      <c r="D42" s="17"/>
+      <c r="E42" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9704,16 +9743,17 @@
       <c r="A43" t="s">
         <v>11</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="17" t="s">
         <v>544</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="17" t="s">
         <v>544</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="D43" s="17"/>
+      <c r="E43" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9721,16 +9761,17 @@
       <c r="A44" t="s">
         <v>11</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="17" t="s">
         <v>460</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="17" t="s">
         <v>460</v>
       </c>
-      <c r="E44" t="s">
+      <c r="D44" s="17"/>
+      <c r="E44" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9738,16 +9779,17 @@
       <c r="A45" t="s">
         <v>11</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="17" t="s">
         <v>459</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="17" t="s">
         <v>459</v>
       </c>
-      <c r="E45" t="s">
+      <c r="D45" s="17"/>
+      <c r="E45" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9755,16 +9797,17 @@
       <c r="A46" t="s">
         <v>11</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="17" t="s">
         <v>458</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="17" t="s">
         <v>458</v>
       </c>
-      <c r="E46" t="s">
+      <c r="D46" s="17"/>
+      <c r="E46" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9772,16 +9815,17 @@
       <c r="A47" t="s">
         <v>11</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="17" t="s">
         <v>457</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="17" t="s">
         <v>457</v>
       </c>
-      <c r="E47" t="s">
+      <c r="D47" s="17"/>
+      <c r="E47" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9789,16 +9833,17 @@
       <c r="A48" t="s">
         <v>11</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="17" t="s">
         <v>456</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="17" t="s">
         <v>456</v>
       </c>
-      <c r="E48" t="s">
+      <c r="D48" s="17"/>
+      <c r="E48" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9806,16 +9851,17 @@
       <c r="A49" t="s">
         <v>11</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="17" t="s">
         <v>455</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="17" t="s">
         <v>455</v>
       </c>
-      <c r="E49" t="s">
+      <c r="D49" s="17"/>
+      <c r="E49" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9823,16 +9869,17 @@
       <c r="A50" t="s">
         <v>11</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="17" t="s">
         <v>454</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="17" t="s">
         <v>454</v>
       </c>
-      <c r="E50" t="s">
+      <c r="D50" s="17"/>
+      <c r="E50" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9840,16 +9887,17 @@
       <c r="A51" t="s">
         <v>11</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="17" t="s">
         <v>453</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="17" t="s">
         <v>453</v>
       </c>
-      <c r="E51" t="s">
+      <c r="D51" s="17"/>
+      <c r="E51" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="17" t="s">
         <v>23</v>
       </c>
     </row>
@@ -9857,16 +9905,17 @@
       <c r="A52" t="s">
         <v>11</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="17" t="s">
         <v>452</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="17" t="s">
         <v>452</v>
       </c>
-      <c r="E52" t="s">
+      <c r="D52" s="17"/>
+      <c r="E52" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="17" t="s">
         <v>23</v>
       </c>
     </row>
@@ -9874,16 +9923,17 @@
       <c r="A53" t="s">
         <v>11</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="17" t="s">
         <v>543</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="17" t="s">
         <v>543</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="D53" s="17"/>
+      <c r="E53" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="17" t="s">
         <v>23</v>
       </c>
     </row>
@@ -9891,16 +9941,17 @@
       <c r="A54" t="s">
         <v>11</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="17" t="s">
         <v>542</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="17" t="s">
         <v>542</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="D54" s="17"/>
+      <c r="E54" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="17" t="s">
         <v>23</v>
       </c>
     </row>
@@ -9908,16 +9959,17 @@
       <c r="A55" t="s">
         <v>11</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="17" t="s">
         <v>541</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="17" t="s">
         <v>541</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="D55" s="17"/>
+      <c r="E55" s="17" t="s">
         <v>348</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9925,16 +9977,17 @@
       <c r="A56" t="s">
         <v>11</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="17" t="s">
         <v>540</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="17" t="s">
         <v>540</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="D56" s="17"/>
+      <c r="E56" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="17" t="s">
         <v>23</v>
       </c>
     </row>
@@ -9942,16 +9995,17 @@
       <c r="A57" t="s">
         <v>11</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="17" t="s">
         <v>451</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="17" t="s">
         <v>451</v>
       </c>
-      <c r="E57" t="s">
+      <c r="D57" s="17"/>
+      <c r="E57" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9959,16 +10013,17 @@
       <c r="A58" t="s">
         <v>11</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="17" t="s">
         <v>539</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="17" t="s">
         <v>539</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="D58" s="17"/>
+      <c r="E58" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="17" t="s">
         <v>23</v>
       </c>
     </row>
@@ -9976,16 +10031,17 @@
       <c r="A59" t="s">
         <v>11</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="17" t="s">
         <v>450</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="17" t="s">
         <v>450</v>
       </c>
-      <c r="E59" t="s">
+      <c r="D59" s="17"/>
+      <c r="E59" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9993,16 +10049,17 @@
       <c r="A60" t="s">
         <v>11</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="17" t="s">
         <v>449</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="17" t="s">
         <v>449</v>
       </c>
-      <c r="E60" t="s">
+      <c r="D60" s="17"/>
+      <c r="E60" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10010,16 +10067,17 @@
       <c r="A61" t="s">
         <v>11</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="17" t="s">
         <v>448</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="17" t="s">
         <v>448</v>
       </c>
-      <c r="E61" t="s">
+      <c r="D61" s="17"/>
+      <c r="E61" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="17" t="s">
         <v>23</v>
       </c>
     </row>
@@ -10027,16 +10085,17 @@
       <c r="A62" t="s">
         <v>11</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="17" t="s">
         <v>538</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="17" t="s">
         <v>538</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="D62" s="17"/>
+      <c r="E62" s="17" t="s">
         <v>345</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="17" t="s">
         <v>23</v>
       </c>
     </row>
@@ -10044,16 +10103,17 @@
       <c r="A63" t="s">
         <v>11</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="17" t="s">
         <v>537</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="17" t="s">
         <v>537</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="D63" s="17"/>
+      <c r="E63" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="17" t="s">
         <v>23</v>
       </c>
     </row>
@@ -10061,16 +10121,17 @@
       <c r="A64" t="s">
         <v>11</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="17" t="s">
         <v>536</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="17" t="s">
         <v>536</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="D64" s="17"/>
+      <c r="E64" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="17" t="s">
         <v>23</v>
       </c>
     </row>
@@ -10078,16 +10139,17 @@
       <c r="A65" t="s">
         <v>11</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="17" t="s">
         <v>535</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="17" t="s">
         <v>535</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="D65" s="17"/>
+      <c r="E65" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="17" t="s">
         <v>23</v>
       </c>
     </row>
@@ -10095,16 +10157,17 @@
       <c r="A66" t="s">
         <v>11</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="E66" t="s">
+      <c r="D66" s="17"/>
+      <c r="E66" s="17" t="s">
         <v>337</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="17" t="s">
         <v>23</v>
       </c>
     </row>
@@ -10112,16 +10175,17 @@
       <c r="A67" t="s">
         <v>11</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="17" t="s">
         <v>530</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="17" t="s">
         <v>530</v>
       </c>
-      <c r="E67" t="s">
+      <c r="D67" s="17"/>
+      <c r="E67" s="17" t="s">
         <v>335</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10129,16 +10193,17 @@
       <c r="A68" t="s">
         <v>11</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="17" t="s">
         <v>529</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="17" t="s">
         <v>529</v>
       </c>
-      <c r="E68" t="s">
+      <c r="D68" s="17"/>
+      <c r="E68" s="17" t="s">
         <v>333</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10146,16 +10211,17 @@
       <c r="A69" t="s">
         <v>11</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="17" t="s">
         <v>528</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="17" t="s">
         <v>528</v>
       </c>
-      <c r="E69" t="s">
+      <c r="D69" s="17"/>
+      <c r="E69" s="17" t="s">
         <v>331</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10163,16 +10229,17 @@
       <c r="A70" t="s">
         <v>11</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="17" t="s">
         <v>562</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="17" t="s">
         <v>562</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="D70" s="17"/>
+      <c r="E70" s="17" t="s">
         <v>370</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10180,16 +10247,17 @@
       <c r="A71" t="s">
         <v>11</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="17" t="s">
         <v>527</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="17" t="s">
         <v>527</v>
       </c>
-      <c r="E71" t="s">
+      <c r="D71" s="17"/>
+      <c r="E71" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10197,16 +10265,17 @@
       <c r="A72" t="s">
         <v>11</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="17" t="s">
         <v>561</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="17" t="s">
         <v>561</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="D72" s="17"/>
+      <c r="E72" s="17" t="s">
         <v>368</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10214,16 +10283,17 @@
       <c r="A73" t="s">
         <v>11</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="17" t="s">
         <v>526</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="17" t="s">
         <v>526</v>
       </c>
-      <c r="E73" t="s">
+      <c r="D73" s="17"/>
+      <c r="E73" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10231,16 +10301,17 @@
       <c r="A74" t="s">
         <v>11</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="17" t="s">
         <v>560</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="17" t="s">
         <v>560</v>
       </c>
-      <c r="E74" s="7" t="s">
+      <c r="D74" s="17"/>
+      <c r="E74" s="17" t="s">
         <v>367</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10248,16 +10319,17 @@
       <c r="A75" t="s">
         <v>11</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="17" t="s">
         <v>447</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="17" t="s">
         <v>447</v>
       </c>
-      <c r="E75" t="s">
+      <c r="D75" s="17"/>
+      <c r="E75" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="17" t="s">
         <v>23</v>
       </c>
     </row>
@@ -10265,16 +10337,17 @@
       <c r="A76" t="s">
         <v>11</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="17" t="s">
         <v>437</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="17" t="s">
         <v>437</v>
       </c>
-      <c r="E76" t="s">
+      <c r="D76" s="17"/>
+      <c r="E76" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="17" t="s">
         <v>23</v>
       </c>
     </row>
@@ -10282,16 +10355,17 @@
       <c r="A77" t="s">
         <v>11</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="17" t="s">
         <v>525</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="17" t="s">
         <v>525</v>
       </c>
-      <c r="E77" t="s">
+      <c r="D77" s="17"/>
+      <c r="E77" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10299,16 +10373,17 @@
       <c r="A78" t="s">
         <v>11</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="17" t="s">
         <v>559</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="17" t="s">
         <v>559</v>
       </c>
-      <c r="E78" s="7" t="s">
+      <c r="D78" s="17"/>
+      <c r="E78" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10316,16 +10391,17 @@
       <c r="A79" t="s">
         <v>11</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="17" t="s">
         <v>524</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="17" t="s">
         <v>524</v>
       </c>
-      <c r="E79" t="s">
+      <c r="D79" s="17"/>
+      <c r="E79" s="17" t="s">
         <v>327</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10333,16 +10409,17 @@
       <c r="A80" t="s">
         <v>11</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="17" t="s">
         <v>558</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="17" t="s">
         <v>558</v>
       </c>
-      <c r="E80" s="7" t="s">
+      <c r="D80" s="17"/>
+      <c r="E80" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10350,16 +10427,17 @@
       <c r="A81" t="s">
         <v>11</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="17" t="s">
         <v>557</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="17" t="s">
         <v>557</v>
       </c>
-      <c r="E81" s="7" t="s">
+      <c r="D81" s="17"/>
+      <c r="E81" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10367,16 +10445,17 @@
       <c r="A82" t="s">
         <v>11</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="17" t="s">
         <v>523</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="17" t="s">
         <v>523</v>
       </c>
-      <c r="E82" t="s">
+      <c r="D82" s="17"/>
+      <c r="E82" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10384,16 +10463,17 @@
       <c r="A83" t="s">
         <v>11</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="17" t="s">
         <v>522</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="17" t="s">
         <v>522</v>
       </c>
-      <c r="E83" t="s">
+      <c r="D83" s="17"/>
+      <c r="E83" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10401,16 +10481,17 @@
       <c r="A84" t="s">
         <v>11</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="17" t="s">
         <v>521</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="17" t="s">
         <v>521</v>
       </c>
-      <c r="E84" t="s">
+      <c r="D84" s="17"/>
+      <c r="E84" s="17" t="s">
         <v>323</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10418,16 +10499,17 @@
       <c r="A85" t="s">
         <v>11</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="17" t="s">
         <v>520</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="17" t="s">
         <v>520</v>
       </c>
-      <c r="E85" t="s">
+      <c r="D85" s="17"/>
+      <c r="E85" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10435,16 +10517,17 @@
       <c r="A86" t="s">
         <v>11</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="17" t="s">
         <v>519</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="17" t="s">
         <v>519</v>
       </c>
-      <c r="E86" t="s">
+      <c r="D86" s="17"/>
+      <c r="E86" s="17" t="s">
         <v>321</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F86" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10452,16 +10535,17 @@
       <c r="A87" t="s">
         <v>11</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="17" t="s">
         <v>518</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="17" t="s">
         <v>518</v>
       </c>
-      <c r="E87" t="s">
+      <c r="D87" s="17"/>
+      <c r="E87" s="17" t="s">
         <v>320</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F87" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10469,16 +10553,17 @@
       <c r="A88" t="s">
         <v>11</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="17" t="s">
         <v>517</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="17" t="s">
         <v>517</v>
       </c>
-      <c r="E88" t="s">
+      <c r="D88" s="17"/>
+      <c r="E88" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F88" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10486,16 +10571,17 @@
       <c r="A89" t="s">
         <v>11</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="17" t="s">
         <v>556</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="17" t="s">
         <v>556</v>
       </c>
-      <c r="E89" s="7" t="s">
+      <c r="D89" s="17"/>
+      <c r="E89" s="17" t="s">
         <v>363</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F89" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10503,16 +10589,17 @@
       <c r="A90" t="s">
         <v>11</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="17" t="s">
         <v>516</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="17" t="s">
         <v>516</v>
       </c>
-      <c r="E90" t="s">
+      <c r="D90" s="17"/>
+      <c r="E90" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F90" s="17" t="s">
         <v>23</v>
       </c>
     </row>
@@ -10520,16 +10607,17 @@
       <c r="A91" t="s">
         <v>11</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="17" t="s">
         <v>515</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="17" t="s">
         <v>515</v>
       </c>
-      <c r="E91" t="s">
+      <c r="D91" s="17"/>
+      <c r="E91" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F91" s="17" t="s">
         <v>23</v>
       </c>
     </row>
@@ -10537,16 +10625,17 @@
       <c r="A92" t="s">
         <v>11</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="17" t="s">
         <v>514</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="17" t="s">
         <v>514</v>
       </c>
-      <c r="E92" t="s">
+      <c r="D92" s="17"/>
+      <c r="E92" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F92" s="17" t="s">
         <v>23</v>
       </c>
     </row>
@@ -10554,16 +10643,17 @@
       <c r="A93" t="s">
         <v>11</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="17" t="s">
         <v>513</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="17" t="s">
         <v>513</v>
       </c>
-      <c r="E93" t="s">
+      <c r="D93" s="17"/>
+      <c r="E93" s="17" t="s">
         <v>315</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F93" s="17" t="s">
         <v>23</v>
       </c>
     </row>
@@ -10571,16 +10661,17 @@
       <c r="A94" t="s">
         <v>11</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="17" t="s">
         <v>445</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="17" t="s">
         <v>445</v>
       </c>
-      <c r="E94" t="s">
+      <c r="D94" s="17"/>
+      <c r="E94" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" s="17" t="s">
         <v>23</v>
       </c>
     </row>
@@ -10588,16 +10679,17 @@
       <c r="A95" t="s">
         <v>11</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="17" t="s">
         <v>446</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="17" t="s">
         <v>446</v>
       </c>
-      <c r="E95" t="s">
+      <c r="D95" s="17"/>
+      <c r="E95" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F95" s="17" t="s">
         <v>23</v>
       </c>
     </row>
@@ -10605,16 +10697,17 @@
       <c r="A96" t="s">
         <v>11</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="17" t="s">
         <v>444</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="17" t="s">
         <v>444</v>
       </c>
-      <c r="E96" t="s">
+      <c r="D96" s="17"/>
+      <c r="E96" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F96" s="17" t="s">
         <v>23</v>
       </c>
     </row>
@@ -10622,16 +10715,17 @@
       <c r="A97" t="s">
         <v>11</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="17" t="s">
         <v>443</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="17" t="s">
         <v>443</v>
       </c>
-      <c r="E97" t="s">
+      <c r="D97" s="17"/>
+      <c r="E97" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F97" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10639,16 +10733,17 @@
       <c r="A98" t="s">
         <v>11</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="E98" t="s">
+      <c r="D98" s="17"/>
+      <c r="E98" s="17" t="s">
         <v>314</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F98" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10656,16 +10751,17 @@
       <c r="A99" t="s">
         <v>11</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="17" t="s">
         <v>511</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="17" t="s">
         <v>511</v>
       </c>
-      <c r="E99" t="s">
+      <c r="D99" s="17"/>
+      <c r="E99" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F99" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10673,16 +10769,17 @@
       <c r="A100" t="s">
         <v>11</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="17" t="s">
         <v>510</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="17" t="s">
         <v>510</v>
       </c>
-      <c r="E100" t="s">
+      <c r="D100" s="17"/>
+      <c r="E100" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F100" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10690,16 +10787,17 @@
       <c r="A101" t="s">
         <v>11</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="17" t="s">
         <v>509</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="17" t="s">
         <v>509</v>
       </c>
-      <c r="E101" t="s">
+      <c r="D101" s="17"/>
+      <c r="E101" s="17" t="s">
         <v>311</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F101" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10707,16 +10805,17 @@
       <c r="A102" t="s">
         <v>11</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="17" t="s">
         <v>442</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="17" t="s">
         <v>442</v>
       </c>
-      <c r="E102" t="s">
+      <c r="D102" s="17"/>
+      <c r="E102" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F102" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10724,16 +10823,17 @@
       <c r="A103" t="s">
         <v>11</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="17" t="s">
         <v>508</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="17" t="s">
         <v>508</v>
       </c>
-      <c r="E103" t="s">
+      <c r="D103" s="17"/>
+      <c r="E103" s="17" t="s">
         <v>310</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F103" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10741,16 +10841,17 @@
       <c r="A104" t="s">
         <v>11</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="17" t="s">
         <v>507</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="17" t="s">
         <v>507</v>
       </c>
-      <c r="E104" t="s">
+      <c r="D104" s="17"/>
+      <c r="E104" s="17" t="s">
         <v>309</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F104" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10758,16 +10859,17 @@
       <c r="A105" t="s">
         <v>11</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="17" t="s">
         <v>506</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="17" t="s">
         <v>506</v>
       </c>
-      <c r="E105" t="s">
+      <c r="D105" s="17"/>
+      <c r="E105" s="17" t="s">
         <v>308</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F105" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10775,16 +10877,17 @@
       <c r="A106" t="s">
         <v>11</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="17" t="s">
         <v>505</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="17" t="s">
         <v>505</v>
       </c>
-      <c r="E106" t="s">
+      <c r="D106" s="17"/>
+      <c r="E106" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F106" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10792,16 +10895,17 @@
       <c r="A107" t="s">
         <v>11</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="17" t="s">
         <v>504</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="17" t="s">
         <v>504</v>
       </c>
-      <c r="E107" t="s">
+      <c r="D107" s="17"/>
+      <c r="E107" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F107" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10809,16 +10913,17 @@
       <c r="A108" t="s">
         <v>11</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="17" t="s">
         <v>503</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="17" t="s">
         <v>503</v>
       </c>
-      <c r="E108" t="s">
+      <c r="D108" s="17"/>
+      <c r="E108" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F108" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10826,16 +10931,17 @@
       <c r="A109" t="s">
         <v>11</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="17" t="s">
         <v>555</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="17" t="s">
         <v>555</v>
       </c>
-      <c r="E109" s="7" t="s">
+      <c r="D109" s="17"/>
+      <c r="E109" s="17" t="s">
         <v>362</v>
       </c>
-      <c r="F109" t="s">
+      <c r="F109" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10843,16 +10949,17 @@
       <c r="A110" t="s">
         <v>11</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="17" t="s">
         <v>554</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="17" t="s">
         <v>554</v>
       </c>
-      <c r="E110" s="7" t="s">
+      <c r="D110" s="17"/>
+      <c r="E110" s="17" t="s">
         <v>361</v>
       </c>
-      <c r="F110" t="s">
+      <c r="F110" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10860,16 +10967,17 @@
       <c r="A111" t="s">
         <v>11</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="17" t="s">
         <v>534</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="17" t="s">
         <v>534</v>
       </c>
-      <c r="E111" s="7" t="s">
+      <c r="D111" s="17"/>
+      <c r="E111" s="17" t="s">
         <v>341</v>
       </c>
-      <c r="F111" t="s">
+      <c r="F111" s="17" t="s">
         <v>23</v>
       </c>
     </row>
@@ -10877,16 +10985,17 @@
       <c r="A112" t="s">
         <v>11</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="17" t="s">
         <v>502</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="17" t="s">
         <v>502</v>
       </c>
-      <c r="E112" t="s">
+      <c r="D112" s="17"/>
+      <c r="E112" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F112" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10894,16 +11003,17 @@
       <c r="A113" t="s">
         <v>11</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="17" t="s">
         <v>501</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="17" t="s">
         <v>501</v>
       </c>
-      <c r="E113" t="s">
+      <c r="D113" s="17"/>
+      <c r="E113" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="F113" t="s">
+      <c r="F113" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10911,16 +11021,17 @@
       <c r="A114" t="s">
         <v>11</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="17" t="s">
         <v>500</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="17" t="s">
         <v>500</v>
       </c>
-      <c r="E114" t="s">
+      <c r="D114" s="17"/>
+      <c r="E114" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="F114" t="s">
+      <c r="F114" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10928,16 +11039,17 @@
       <c r="A115" t="s">
         <v>11</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="17" t="s">
         <v>499</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="17" t="s">
         <v>499</v>
       </c>
-      <c r="E115" t="s">
+      <c r="D115" s="17"/>
+      <c r="E115" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="F115" t="s">
+      <c r="F115" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10945,16 +11057,17 @@
       <c r="A116" t="s">
         <v>11</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="17" t="s">
         <v>498</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="17" t="s">
         <v>498</v>
       </c>
-      <c r="E116" t="s">
+      <c r="D116" s="17"/>
+      <c r="E116" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="F116" t="s">
+      <c r="F116" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10962,16 +11075,17 @@
       <c r="A117" t="s">
         <v>11</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="17" t="s">
         <v>497</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="17" t="s">
         <v>497</v>
       </c>
-      <c r="E117" t="s">
+      <c r="D117" s="17"/>
+      <c r="E117" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="F117" t="s">
+      <c r="F117" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10979,34 +11093,35 @@
       <c r="A118" t="s">
         <v>11</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="17" t="s">
         <v>496</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="17" t="s">
         <v>496</v>
       </c>
-      <c r="E118" t="s">
+      <c r="D118" s="17"/>
+      <c r="E118" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="F118" t="s">
+      <c r="F118" s="17" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B119" s="7" t="s">
+      <c r="A119" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B119" s="17" t="s">
         <v>441</v>
       </c>
-      <c r="C119" s="7" t="s">
+      <c r="C119" s="17" t="s">
         <v>441</v>
       </c>
-      <c r="D119" s="7"/>
-      <c r="E119" s="7" t="s">
+      <c r="D119" s="17"/>
+      <c r="E119" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="F119" s="7" t="s">
+      <c r="F119" s="17" t="s">
         <v>21</v>
       </c>
     </row>
@@ -11014,16 +11129,17 @@
       <c r="A120" t="s">
         <v>11</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="17" t="s">
         <v>495</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="17" t="s">
         <v>495</v>
       </c>
-      <c r="E120" t="s">
+      <c r="D120" s="17"/>
+      <c r="E120" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="F120" t="s">
+      <c r="F120" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -11031,16 +11147,17 @@
       <c r="A121" t="s">
         <v>11</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="17" t="s">
         <v>494</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="17" t="s">
         <v>494</v>
       </c>
-      <c r="E121" t="s">
+      <c r="D121" s="17"/>
+      <c r="E121" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="F121" t="s">
+      <c r="F121" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -11048,16 +11165,17 @@
       <c r="A122" t="s">
         <v>11</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="17" t="s">
         <v>493</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="17" t="s">
         <v>493</v>
       </c>
-      <c r="E122" t="s">
+      <c r="D122" s="17"/>
+      <c r="E122" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="F122" t="s">
+      <c r="F122" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -11065,16 +11183,17 @@
       <c r="A123" t="s">
         <v>11</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="17" t="s">
         <v>492</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="17" t="s">
         <v>492</v>
       </c>
-      <c r="E123" t="s">
+      <c r="D123" s="17"/>
+      <c r="E123" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="F123" t="s">
+      <c r="F123" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -11082,16 +11201,17 @@
       <c r="A124" t="s">
         <v>11</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="17" t="s">
         <v>491</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="17" t="s">
         <v>491</v>
       </c>
-      <c r="E124" t="s">
+      <c r="D124" s="17"/>
+      <c r="E124" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="F124" t="s">
+      <c r="F124" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -11099,16 +11219,17 @@
       <c r="A125" t="s">
         <v>11</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="17" t="s">
         <v>490</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125" s="17" t="s">
         <v>490</v>
       </c>
-      <c r="E125" t="s">
+      <c r="D125" s="17"/>
+      <c r="E125" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="F125" t="s">
+      <c r="F125" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -11116,16 +11237,17 @@
       <c r="A126" t="s">
         <v>11</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="17" t="s">
         <v>489</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="17" t="s">
         <v>489</v>
       </c>
-      <c r="E126" t="s">
+      <c r="D126" s="17"/>
+      <c r="E126" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="F126" t="s">
+      <c r="F126" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -11133,16 +11255,17 @@
       <c r="A127" t="s">
         <v>11</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="17" t="s">
         <v>488</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="17" t="s">
         <v>488</v>
       </c>
-      <c r="E127" t="s">
+      <c r="D127" s="17"/>
+      <c r="E127" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="F127" t="s">
+      <c r="F127" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -11150,16 +11273,17 @@
       <c r="A128" t="s">
         <v>11</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="17" t="s">
         <v>553</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="17" t="s">
         <v>553</v>
       </c>
-      <c r="E128" s="7" t="s">
+      <c r="D128" s="17"/>
+      <c r="E128" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="F128" t="s">
+      <c r="F128" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -11167,16 +11291,17 @@
       <c r="A129" t="s">
         <v>11</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="17" t="s">
         <v>552</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="17" t="s">
         <v>552</v>
       </c>
-      <c r="E129" s="7" t="s">
+      <c r="D129" s="17"/>
+      <c r="E129" s="17" t="s">
         <v>359</v>
       </c>
-      <c r="F129" t="s">
+      <c r="F129" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -11184,16 +11309,17 @@
       <c r="A130" t="s">
         <v>11</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="17" t="s">
         <v>533</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="17" t="s">
         <v>533</v>
       </c>
-      <c r="E130" s="7" t="s">
+      <c r="D130" s="17"/>
+      <c r="E130" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="F130" t="s">
+      <c r="F130" s="17" t="s">
         <v>23</v>
       </c>
     </row>
@@ -11201,16 +11327,17 @@
       <c r="A131" t="s">
         <v>11</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="17" t="s">
         <v>436</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="17" t="s">
         <v>436</v>
       </c>
-      <c r="E131" t="s">
+      <c r="D131" s="17"/>
+      <c r="E131" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="F131" t="s">
+      <c r="F131" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -11218,16 +11345,17 @@
       <c r="A132" t="s">
         <v>11</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="17" t="s">
         <v>532</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="17" t="s">
         <v>532</v>
       </c>
-      <c r="E132" t="s">
+      <c r="D132" s="17"/>
+      <c r="E132" s="17" t="s">
         <v>338</v>
       </c>
-      <c r="F132" t="s">
+      <c r="F132" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -11235,16 +11363,17 @@
       <c r="A133" t="s">
         <v>11</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="17" t="s">
         <v>563</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="17" t="s">
         <v>563</v>
       </c>
-      <c r="E133" t="s">
+      <c r="D133" s="17"/>
+      <c r="E133" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="F133" t="s">
+      <c r="F133" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -11252,16 +11381,17 @@
       <c r="A134" t="s">
         <v>11</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="E134" t="s">
+      <c r="D134" s="17"/>
+      <c r="E134" s="17" t="s">
         <v>570</v>
       </c>
-      <c r="F134" t="s">
+      <c r="F134" s="17" t="s">
         <v>23</v>
       </c>
     </row>
@@ -11269,16 +11399,17 @@
       <c r="A135" t="s">
         <v>11</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="17" t="s">
         <v>583</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="17" t="s">
         <v>583</v>
       </c>
-      <c r="E135" t="s">
+      <c r="D135" s="17"/>
+      <c r="E135" s="17" t="s">
         <v>571</v>
       </c>
-      <c r="F135" t="s">
+      <c r="F135" s="17" t="s">
         <v>23</v>
       </c>
     </row>
@@ -11286,16 +11417,17 @@
       <c r="A136" t="s">
         <v>11</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="17" t="s">
         <v>584</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136" s="17" t="s">
         <v>584</v>
       </c>
-      <c r="E136" t="s">
+      <c r="D136" s="17"/>
+      <c r="E136" s="17" t="s">
         <v>572</v>
       </c>
-      <c r="F136" t="s">
+      <c r="F136" s="17" t="s">
         <v>23</v>
       </c>
     </row>
@@ -11303,16 +11435,17 @@
       <c r="A137" t="s">
         <v>11</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="17" t="s">
         <v>585</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="17" t="s">
         <v>585</v>
       </c>
-      <c r="E137" t="s">
+      <c r="D137" s="17"/>
+      <c r="E137" s="17" t="s">
         <v>573</v>
       </c>
-      <c r="F137" t="s">
+      <c r="F137" s="17" t="s">
         <v>23</v>
       </c>
     </row>
@@ -11320,16 +11453,17 @@
       <c r="A138" t="s">
         <v>11</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="17" t="s">
         <v>586</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C138" s="17" t="s">
         <v>586</v>
       </c>
-      <c r="E138" t="s">
+      <c r="D138" s="17"/>
+      <c r="E138" s="17" t="s">
         <v>574</v>
       </c>
-      <c r="F138" t="s">
+      <c r="F138" s="17" t="s">
         <v>23</v>
       </c>
     </row>
@@ -11337,16 +11471,17 @@
       <c r="A139" t="s">
         <v>11</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="17" t="s">
         <v>587</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C139" s="17" t="s">
         <v>587</v>
       </c>
-      <c r="E139" t="s">
+      <c r="D139" s="17"/>
+      <c r="E139" s="17" t="s">
         <v>575</v>
       </c>
-      <c r="F139" t="s">
+      <c r="F139" s="17" t="s">
         <v>23</v>
       </c>
     </row>
@@ -11418,154 +11553,154 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="I3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="3" t="s">
+      <c r="I4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="3" t="s">
+      <c r="I5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="3" t="s">
+      <c r="I6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="3" t="s">
+      <c r="I7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="3" t="s">
+      <c r="I8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
@@ -11600,7 +11735,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -11629,7 +11764,7 @@
       </c>
       <c r="K11"/>
     </row>
-    <row r="12" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -11656,7 +11791,7 @@
       </c>
       <c r="K12"/>
     </row>
-    <row r="13" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -11683,7 +11818,7 @@
       </c>
       <c r="K13"/>
     </row>
-    <row r="14" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -11710,7 +11845,7 @@
       </c>
       <c r="K14"/>
     </row>
-    <row r="15" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -11739,7 +11874,7 @@
       </c>
       <c r="K15"/>
     </row>
-    <row r="16" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -11766,7 +11901,7 @@
       </c>
       <c r="K16"/>
     </row>
-    <row r="18" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>41</v>
       </c>
